--- a/dist/لیست محصولات فعال در سایت 030328.xlsx
+++ b/dist/لیست محصولات فعال در سایت 030328.xlsx
@@ -399,7 +399,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,6 +430,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -513,24 +517,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AA949"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F31"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="255.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -577,19 +582,20 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="b">
+      <c r="B2" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="5"/>
@@ -618,19 +624,20 @@
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="b">
+      <c r="B3" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="5"/>
@@ -655,23 +662,24 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="b">
+      <c r="B4" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="5"/>
@@ -700,19 +708,20 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="b">
+      <c r="B5" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="5"/>
@@ -741,19 +750,20 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="b">
+      <c r="B6" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="5"/>
@@ -782,19 +792,20 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="b">
+      <c r="B7" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="5"/>
@@ -819,23 +830,24 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="b">
+      <c r="B8" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="5"/>
@@ -864,19 +876,20 @@
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="b">
+      <c r="B9" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="5"/>
@@ -905,19 +918,20 @@
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7" t="b">
+      <c r="B10" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="5"/>
@@ -946,19 +960,20 @@
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7" t="b">
+      <c r="B11" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="5"/>
@@ -987,19 +1002,20 @@
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7" t="b">
+      <c r="B12" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="5"/>
@@ -1028,19 +1044,20 @@
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="7" t="b">
+      <c r="B13" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="5"/>
@@ -1069,19 +1086,20 @@
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="7" t="b">
+      <c r="B14" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="5"/>
@@ -1110,19 +1128,20 @@
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="7" t="b">
+      <c r="B15" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="5"/>
@@ -1151,19 +1170,20 @@
       <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="7" t="b">
+      <c r="B16" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="5"/>
@@ -1192,19 +1212,20 @@
       <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="7" t="b">
+      <c r="B17" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="5"/>
@@ -1233,19 +1254,20 @@
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="7" t="b">
+      <c r="B18" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="5"/>
@@ -1270,23 +1292,24 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="7" t="b">
+      <c r="B19" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="5"/>
@@ -1315,19 +1338,20 @@
       <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="7" t="b">
+      <c r="B20" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="5"/>
@@ -1352,23 +1376,24 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="7" t="b">
+      <c r="B21" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="8" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="5"/>
@@ -1393,23 +1418,24 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="7" t="b">
+      <c r="B22" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="5"/>
@@ -1438,19 +1464,20 @@
       <c r="A23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="7" t="b">
+      <c r="B23" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="5"/>
@@ -1475,23 +1502,24 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="7" t="b">
+      <c r="B24" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G24" s="5"/>
@@ -1520,19 +1548,20 @@
       <c r="A25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="7" t="b">
+      <c r="B25" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G25" s="5"/>
@@ -1561,19 +1590,20 @@
       <c r="A26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="7" t="b">
+      <c r="B26" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G26" s="5"/>
@@ -1602,19 +1632,20 @@
       <c r="A27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="7" t="b">
+      <c r="B27" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="8" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="5"/>
@@ -1639,23 +1670,24 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="7" t="b">
+      <c r="B28" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G28" s="5"/>
@@ -1680,23 +1712,24 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="7" t="b">
+      <c r="B29" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G29" s="5"/>
@@ -1725,19 +1758,20 @@
       <c r="A30" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="7" t="b">
+      <c r="B30" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G30" s="5"/>
@@ -1766,19 +1800,20 @@
       <c r="A31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="7" t="b">
+      <c r="B31" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="8" t="s">
         <v>88</v>
       </c>
       <c r="G31" s="5"/>
@@ -1803,7 +1838,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1832,7 +1867,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1861,7 +1896,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1890,7 +1925,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1919,7 +1954,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1948,7 +1983,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1977,7 +2012,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2006,7 +2041,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2035,7 +2070,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2064,7 +2099,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2093,7 +2128,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2122,7 +2157,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2151,7 +2186,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2180,7 +2215,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2209,7 +2244,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2238,7 +2273,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2267,7 +2302,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2296,7 +2331,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2325,7 +2360,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2354,7 +2389,7 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2383,7 +2418,7 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2412,7 +2447,7 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2441,7 +2476,7 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2470,7 +2505,7 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2499,7 +2534,7 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2528,7 +2563,7 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2557,7 +2592,7 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2586,7 +2621,7 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2615,7 +2650,7 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2644,7 +2679,7 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2673,7 +2708,7 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2702,7 +2737,7 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2731,7 +2766,7 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2760,7 +2795,7 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2789,7 +2824,7 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2818,7 +2853,7 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2847,7 +2882,7 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2876,7 +2911,7 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2905,7 +2940,7 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2934,7 +2969,7 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2963,7 +2998,7 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2992,7 +3027,7 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3021,7 +3056,7 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -3050,7 +3085,7 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -3079,7 +3114,7 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -3108,7 +3143,7 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -3137,7 +3172,7 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -3166,7 +3201,7 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -3195,7 +3230,7 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -3224,7 +3259,7 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -3253,7 +3288,7 @@
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -3282,7 +3317,7 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -3311,7 +3346,7 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -3340,7 +3375,7 @@
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -3369,7 +3404,7 @@
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -3398,7 +3433,7 @@
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -3427,7 +3462,7 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -3456,7 +3491,7 @@
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -3485,7 +3520,7 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -3514,7 +3549,7 @@
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -3543,7 +3578,7 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -3572,7 +3607,7 @@
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -3601,7 +3636,7 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3630,7 +3665,7 @@
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3659,7 +3694,7 @@
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -3688,7 +3723,7 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -3717,7 +3752,7 @@
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -3746,7 +3781,7 @@
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3775,7 +3810,7 @@
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3804,7 +3839,7 @@
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3833,7 +3868,7 @@
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3862,7 +3897,7 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3891,7 +3926,7 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3920,7 +3955,7 @@
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3949,7 +3984,7 @@
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3978,7 +4013,7 @@
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -4007,7 +4042,7 @@
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -4036,7 +4071,7 @@
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -4065,7 +4100,7 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -4094,7 +4129,7 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -4123,7 +4158,7 @@
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -4152,7 +4187,7 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -4181,7 +4216,7 @@
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -4210,7 +4245,7 @@
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -4239,7 +4274,7 @@
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -4268,7 +4303,7 @@
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -4297,7 +4332,7 @@
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -4326,7 +4361,7 @@
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -4355,7 +4390,7 @@
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -4384,7 +4419,7 @@
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -4413,7 +4448,7 @@
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -4442,7 +4477,7 @@
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -4471,7 +4506,7 @@
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -4500,7 +4535,7 @@
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -4529,7 +4564,7 @@
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -4558,7 +4593,7 @@
       <c r="Z126" s="5"/>
       <c r="AA126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -4587,7 +4622,7 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -4616,7 +4651,7 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -4645,7 +4680,7 @@
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -4674,7 +4709,7 @@
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -4703,7 +4738,7 @@
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -4732,7 +4767,7 @@
       <c r="Z132" s="5"/>
       <c r="AA132" s="5"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -4761,7 +4796,7 @@
       <c r="Z133" s="5"/>
       <c r="AA133" s="5"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -4790,7 +4825,7 @@
       <c r="Z134" s="5"/>
       <c r="AA134" s="5"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -4819,7 +4854,7 @@
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -4848,7 +4883,7 @@
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -4877,7 +4912,7 @@
       <c r="Z137" s="5"/>
       <c r="AA137" s="5"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -4906,7 +4941,7 @@
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -4935,7 +4970,7 @@
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -4964,7 +4999,7 @@
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -4993,7 +5028,7 @@
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -5022,7 +5057,7 @@
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -5051,7 +5086,7 @@
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -5080,7 +5115,7 @@
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -5109,7 +5144,7 @@
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -5138,7 +5173,7 @@
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -5167,7 +5202,7 @@
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -5196,7 +5231,7 @@
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -5225,7 +5260,7 @@
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -5254,7 +5289,7 @@
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -5283,7 +5318,7 @@
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -5312,7 +5347,7 @@
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -5341,7 +5376,7 @@
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -5370,7 +5405,7 @@
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -5399,7 +5434,7 @@
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -5428,7 +5463,7 @@
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -5457,7 +5492,7 @@
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -5486,7 +5521,7 @@
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -5515,7 +5550,7 @@
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -5544,7 +5579,7 @@
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -5573,7 +5608,7 @@
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -5602,7 +5637,7 @@
       <c r="Z162" s="5"/>
       <c r="AA162" s="5"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -5631,7 +5666,7 @@
       <c r="Z163" s="5"/>
       <c r="AA163" s="5"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -5660,7 +5695,7 @@
       <c r="Z164" s="5"/>
       <c r="AA164" s="5"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -5689,7 +5724,7 @@
       <c r="Z165" s="5"/>
       <c r="AA165" s="5"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -5718,7 +5753,7 @@
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -5747,7 +5782,7 @@
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -5776,7 +5811,7 @@
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -5805,7 +5840,7 @@
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -5834,7 +5869,7 @@
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -5863,7 +5898,7 @@
       <c r="Z171" s="5"/>
       <c r="AA171" s="5"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -5892,7 +5927,7 @@
       <c r="Z172" s="5"/>
       <c r="AA172" s="5"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -5921,7 +5956,7 @@
       <c r="Z173" s="5"/>
       <c r="AA173" s="5"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -5950,7 +5985,7 @@
       <c r="Z174" s="5"/>
       <c r="AA174" s="5"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -5979,7 +6014,7 @@
       <c r="Z175" s="5"/>
       <c r="AA175" s="5"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -6008,7 +6043,7 @@
       <c r="Z176" s="5"/>
       <c r="AA176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -6037,7 +6072,7 @@
       <c r="Z177" s="5"/>
       <c r="AA177" s="5"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -6066,7 +6101,7 @@
       <c r="Z178" s="5"/>
       <c r="AA178" s="5"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -6095,7 +6130,7 @@
       <c r="Z179" s="5"/>
       <c r="AA179" s="5"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -6124,7 +6159,7 @@
       <c r="Z180" s="5"/>
       <c r="AA180" s="5"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -6153,7 +6188,7 @@
       <c r="Z181" s="5"/>
       <c r="AA181" s="5"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -6182,7 +6217,7 @@
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -6211,7 +6246,7 @@
       <c r="Z183" s="5"/>
       <c r="AA183" s="5"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -6240,7 +6275,7 @@
       <c r="Z184" s="5"/>
       <c r="AA184" s="5"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -6269,7 +6304,7 @@
       <c r="Z185" s="5"/>
       <c r="AA185" s="5"/>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -6298,7 +6333,7 @@
       <c r="Z186" s="5"/>
       <c r="AA186" s="5"/>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -6327,7 +6362,7 @@
       <c r="Z187" s="5"/>
       <c r="AA187" s="5"/>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -6356,7 +6391,7 @@
       <c r="Z188" s="5"/>
       <c r="AA188" s="5"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -6385,7 +6420,7 @@
       <c r="Z189" s="5"/>
       <c r="AA189" s="5"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -6414,7 +6449,7 @@
       <c r="Z190" s="5"/>
       <c r="AA190" s="5"/>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -6443,7 +6478,7 @@
       <c r="Z191" s="5"/>
       <c r="AA191" s="5"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -6472,7 +6507,7 @@
       <c r="Z192" s="5"/>
       <c r="AA192" s="5"/>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -6501,7 +6536,7 @@
       <c r="Z193" s="5"/>
       <c r="AA193" s="5"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -6530,7 +6565,7 @@
       <c r="Z194" s="5"/>
       <c r="AA194" s="5"/>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -6559,7 +6594,7 @@
       <c r="Z195" s="5"/>
       <c r="AA195" s="5"/>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -6588,7 +6623,7 @@
       <c r="Z196" s="5"/>
       <c r="AA196" s="5"/>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -6617,7 +6652,7 @@
       <c r="Z197" s="5"/>
       <c r="AA197" s="5"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -6646,7 +6681,7 @@
       <c r="Z198" s="5"/>
       <c r="AA198" s="5"/>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -6675,7 +6710,7 @@
       <c r="Z199" s="5"/>
       <c r="AA199" s="5"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -6704,7 +6739,7 @@
       <c r="Z200" s="5"/>
       <c r="AA200" s="5"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -6733,7 +6768,7 @@
       <c r="Z201" s="5"/>
       <c r="AA201" s="5"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -6762,7 +6797,7 @@
       <c r="Z202" s="5"/>
       <c r="AA202" s="5"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -6791,7 +6826,7 @@
       <c r="Z203" s="5"/>
       <c r="AA203" s="5"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -6820,7 +6855,7 @@
       <c r="Z204" s="5"/>
       <c r="AA204" s="5"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -6849,7 +6884,7 @@
       <c r="Z205" s="5"/>
       <c r="AA205" s="5"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -6878,7 +6913,7 @@
       <c r="Z206" s="5"/>
       <c r="AA206" s="5"/>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -6907,7 +6942,7 @@
       <c r="Z207" s="5"/>
       <c r="AA207" s="5"/>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -6936,7 +6971,7 @@
       <c r="Z208" s="5"/>
       <c r="AA208" s="5"/>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -6965,7 +7000,7 @@
       <c r="Z209" s="5"/>
       <c r="AA209" s="5"/>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -6994,7 +7029,7 @@
       <c r="Z210" s="5"/>
       <c r="AA210" s="5"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -7023,7 +7058,7 @@
       <c r="Z211" s="5"/>
       <c r="AA211" s="5"/>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -7052,7 +7087,7 @@
       <c r="Z212" s="5"/>
       <c r="AA212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -7081,7 +7116,7 @@
       <c r="Z213" s="5"/>
       <c r="AA213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -7110,7 +7145,7 @@
       <c r="Z214" s="5"/>
       <c r="AA214" s="5"/>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -7139,7 +7174,7 @@
       <c r="Z215" s="5"/>
       <c r="AA215" s="5"/>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -7168,7 +7203,7 @@
       <c r="Z216" s="5"/>
       <c r="AA216" s="5"/>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -7197,7 +7232,7 @@
       <c r="Z217" s="5"/>
       <c r="AA217" s="5"/>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -7226,7 +7261,7 @@
       <c r="Z218" s="5"/>
       <c r="AA218" s="5"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -7255,7 +7290,7 @@
       <c r="Z219" s="5"/>
       <c r="AA219" s="5"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -7284,7 +7319,7 @@
       <c r="Z220" s="5"/>
       <c r="AA220" s="5"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -7313,7 +7348,7 @@
       <c r="Z221" s="5"/>
       <c r="AA221" s="5"/>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -7342,7 +7377,7 @@
       <c r="Z222" s="5"/>
       <c r="AA222" s="5"/>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -7371,7 +7406,7 @@
       <c r="Z223" s="5"/>
       <c r="AA223" s="5"/>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -7400,7 +7435,7 @@
       <c r="Z224" s="5"/>
       <c r="AA224" s="5"/>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -7429,7 +7464,7 @@
       <c r="Z225" s="5"/>
       <c r="AA225" s="5"/>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -7458,7 +7493,7 @@
       <c r="Z226" s="5"/>
       <c r="AA226" s="5"/>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -7487,7 +7522,7 @@
       <c r="Z227" s="5"/>
       <c r="AA227" s="5"/>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -7516,7 +7551,7 @@
       <c r="Z228" s="5"/>
       <c r="AA228" s="5"/>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -7545,7 +7580,7 @@
       <c r="Z229" s="5"/>
       <c r="AA229" s="5"/>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -7574,7 +7609,7 @@
       <c r="Z230" s="5"/>
       <c r="AA230" s="5"/>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -7603,7 +7638,7 @@
       <c r="Z231" s="5"/>
       <c r="AA231" s="5"/>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -7632,7 +7667,7 @@
       <c r="Z232" s="5"/>
       <c r="AA232" s="5"/>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -7661,7 +7696,7 @@
       <c r="Z233" s="5"/>
       <c r="AA233" s="5"/>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -7690,7 +7725,7 @@
       <c r="Z234" s="5"/>
       <c r="AA234" s="5"/>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -7719,7 +7754,7 @@
       <c r="Z235" s="5"/>
       <c r="AA235" s="5"/>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -7748,7 +7783,7 @@
       <c r="Z236" s="5"/>
       <c r="AA236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -7777,7 +7812,7 @@
       <c r="Z237" s="5"/>
       <c r="AA237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -7806,7 +7841,7 @@
       <c r="Z238" s="5"/>
       <c r="AA238" s="5"/>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -7835,7 +7870,7 @@
       <c r="Z239" s="5"/>
       <c r="AA239" s="5"/>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -7864,7 +7899,7 @@
       <c r="Z240" s="5"/>
       <c r="AA240" s="5"/>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -7893,7 +7928,7 @@
       <c r="Z241" s="5"/>
       <c r="AA241" s="5"/>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -7922,7 +7957,7 @@
       <c r="Z242" s="5"/>
       <c r="AA242" s="5"/>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -7951,7 +7986,7 @@
       <c r="Z243" s="5"/>
       <c r="AA243" s="5"/>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -7980,7 +8015,7 @@
       <c r="Z244" s="5"/>
       <c r="AA244" s="5"/>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -8009,7 +8044,7 @@
       <c r="Z245" s="5"/>
       <c r="AA245" s="5"/>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -8038,7 +8073,7 @@
       <c r="Z246" s="5"/>
       <c r="AA246" s="5"/>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -8067,7 +8102,7 @@
       <c r="Z247" s="5"/>
       <c r="AA247" s="5"/>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -8096,7 +8131,7 @@
       <c r="Z248" s="5"/>
       <c r="AA248" s="5"/>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -8125,7 +8160,7 @@
       <c r="Z249" s="5"/>
       <c r="AA249" s="5"/>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -8154,7 +8189,7 @@
       <c r="Z250" s="5"/>
       <c r="AA250" s="5"/>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -8183,7 +8218,7 @@
       <c r="Z251" s="5"/>
       <c r="AA251" s="5"/>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -8212,7 +8247,7 @@
       <c r="Z252" s="5"/>
       <c r="AA252" s="5"/>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -8241,7 +8276,7 @@
       <c r="Z253" s="5"/>
       <c r="AA253" s="5"/>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -8270,7 +8305,7 @@
       <c r="Z254" s="5"/>
       <c r="AA254" s="5"/>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -8299,7 +8334,7 @@
       <c r="Z255" s="5"/>
       <c r="AA255" s="5"/>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -8328,7 +8363,7 @@
       <c r="Z256" s="5"/>
       <c r="AA256" s="5"/>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -8357,7 +8392,7 @@
       <c r="Z257" s="5"/>
       <c r="AA257" s="5"/>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -8386,7 +8421,7 @@
       <c r="Z258" s="5"/>
       <c r="AA258" s="5"/>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -8415,7 +8450,7 @@
       <c r="Z259" s="5"/>
       <c r="AA259" s="5"/>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -8444,7 +8479,7 @@
       <c r="Z260" s="5"/>
       <c r="AA260" s="5"/>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -8473,7 +8508,7 @@
       <c r="Z261" s="5"/>
       <c r="AA261" s="5"/>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -8502,7 +8537,7 @@
       <c r="Z262" s="5"/>
       <c r="AA262" s="5"/>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -8531,7 +8566,7 @@
       <c r="Z263" s="5"/>
       <c r="AA263" s="5"/>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -8560,7 +8595,7 @@
       <c r="Z264" s="5"/>
       <c r="AA264" s="5"/>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -8589,7 +8624,7 @@
       <c r="Z265" s="5"/>
       <c r="AA265" s="5"/>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -8618,7 +8653,7 @@
       <c r="Z266" s="5"/>
       <c r="AA266" s="5"/>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -8647,7 +8682,7 @@
       <c r="Z267" s="5"/>
       <c r="AA267" s="5"/>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -8676,7 +8711,7 @@
       <c r="Z268" s="5"/>
       <c r="AA268" s="5"/>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -8705,7 +8740,7 @@
       <c r="Z269" s="5"/>
       <c r="AA269" s="5"/>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -8734,7 +8769,7 @@
       <c r="Z270" s="5"/>
       <c r="AA270" s="5"/>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -8763,7 +8798,7 @@
       <c r="Z271" s="5"/>
       <c r="AA271" s="5"/>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -8792,7 +8827,7 @@
       <c r="Z272" s="5"/>
       <c r="AA272" s="5"/>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -8821,7 +8856,7 @@
       <c r="Z273" s="5"/>
       <c r="AA273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -8850,7 +8885,7 @@
       <c r="Z274" s="5"/>
       <c r="AA274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -8879,7 +8914,7 @@
       <c r="Z275" s="5"/>
       <c r="AA275" s="5"/>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -8908,7 +8943,7 @@
       <c r="Z276" s="5"/>
       <c r="AA276" s="5"/>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -8937,7 +8972,7 @@
       <c r="Z277" s="5"/>
       <c r="AA277" s="5"/>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -8966,7 +9001,7 @@
       <c r="Z278" s="5"/>
       <c r="AA278" s="5"/>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -8995,7 +9030,7 @@
       <c r="Z279" s="5"/>
       <c r="AA279" s="5"/>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -9024,7 +9059,7 @@
       <c r="Z280" s="5"/>
       <c r="AA280" s="5"/>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -9053,7 +9088,7 @@
       <c r="Z281" s="5"/>
       <c r="AA281" s="5"/>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -9082,7 +9117,7 @@
       <c r="Z282" s="5"/>
       <c r="AA282" s="5"/>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -9111,7 +9146,7 @@
       <c r="Z283" s="5"/>
       <c r="AA283" s="5"/>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -9140,7 +9175,7 @@
       <c r="Z284" s="5"/>
       <c r="AA284" s="5"/>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -9169,7 +9204,7 @@
       <c r="Z285" s="5"/>
       <c r="AA285" s="5"/>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -9198,7 +9233,7 @@
       <c r="Z286" s="5"/>
       <c r="AA286" s="5"/>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -9227,7 +9262,7 @@
       <c r="Z287" s="5"/>
       <c r="AA287" s="5"/>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -9256,7 +9291,7 @@
       <c r="Z288" s="5"/>
       <c r="AA288" s="5"/>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -9285,7 +9320,7 @@
       <c r="Z289" s="5"/>
       <c r="AA289" s="5"/>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -9314,7 +9349,7 @@
       <c r="Z290" s="5"/>
       <c r="AA290" s="5"/>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -9343,7 +9378,7 @@
       <c r="Z291" s="5"/>
       <c r="AA291" s="5"/>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -9372,7 +9407,7 @@
       <c r="Z292" s="5"/>
       <c r="AA292" s="5"/>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -9401,7 +9436,7 @@
       <c r="Z293" s="5"/>
       <c r="AA293" s="5"/>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -9430,7 +9465,7 @@
       <c r="Z294" s="5"/>
       <c r="AA294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -9459,7 +9494,7 @@
       <c r="Z295" s="5"/>
       <c r="AA295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -9488,7 +9523,7 @@
       <c r="Z296" s="5"/>
       <c r="AA296" s="5"/>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -9517,7 +9552,7 @@
       <c r="Z297" s="5"/>
       <c r="AA297" s="5"/>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -9546,7 +9581,7 @@
       <c r="Z298" s="5"/>
       <c r="AA298" s="5"/>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -9575,7 +9610,7 @@
       <c r="Z299" s="5"/>
       <c r="AA299" s="5"/>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -9604,7 +9639,7 @@
       <c r="Z300" s="5"/>
       <c r="AA300" s="5"/>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -9633,7 +9668,7 @@
       <c r="Z301" s="5"/>
       <c r="AA301" s="5"/>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -9662,7 +9697,7 @@
       <c r="Z302" s="5"/>
       <c r="AA302" s="5"/>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -9691,7 +9726,7 @@
       <c r="Z303" s="5"/>
       <c r="AA303" s="5"/>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -9720,7 +9755,7 @@
       <c r="Z304" s="5"/>
       <c r="AA304" s="5"/>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -9749,7 +9784,7 @@
       <c r="Z305" s="5"/>
       <c r="AA305" s="5"/>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -9778,7 +9813,7 @@
       <c r="Z306" s="5"/>
       <c r="AA306" s="5"/>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -9807,7 +9842,7 @@
       <c r="Z307" s="5"/>
       <c r="AA307" s="5"/>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -9836,7 +9871,7 @@
       <c r="Z308" s="5"/>
       <c r="AA308" s="5"/>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -9865,7 +9900,7 @@
       <c r="Z309" s="5"/>
       <c r="AA309" s="5"/>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -9894,7 +9929,7 @@
       <c r="Z310" s="5"/>
       <c r="AA310" s="5"/>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -9923,7 +9958,7 @@
       <c r="Z311" s="5"/>
       <c r="AA311" s="5"/>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -9952,7 +9987,7 @@
       <c r="Z312" s="5"/>
       <c r="AA312" s="5"/>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -9981,7 +10016,7 @@
       <c r="Z313" s="5"/>
       <c r="AA313" s="5"/>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -10010,7 +10045,7 @@
       <c r="Z314" s="5"/>
       <c r="AA314" s="5"/>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -10039,7 +10074,7 @@
       <c r="Z315" s="5"/>
       <c r="AA315" s="5"/>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -10068,7 +10103,7 @@
       <c r="Z316" s="5"/>
       <c r="AA316" s="5"/>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -10097,7 +10132,7 @@
       <c r="Z317" s="5"/>
       <c r="AA317" s="5"/>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -10126,7 +10161,7 @@
       <c r="Z318" s="5"/>
       <c r="AA318" s="5"/>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -10155,7 +10190,7 @@
       <c r="Z319" s="5"/>
       <c r="AA319" s="5"/>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -10184,7 +10219,7 @@
       <c r="Z320" s="5"/>
       <c r="AA320" s="5"/>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -10213,7 +10248,7 @@
       <c r="Z321" s="5"/>
       <c r="AA321" s="5"/>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -10242,7 +10277,7 @@
       <c r="Z322" s="5"/>
       <c r="AA322" s="5"/>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -10271,7 +10306,7 @@
       <c r="Z323" s="5"/>
       <c r="AA323" s="5"/>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -10300,7 +10335,7 @@
       <c r="Z324" s="5"/>
       <c r="AA324" s="5"/>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -10329,7 +10364,7 @@
       <c r="Z325" s="5"/>
       <c r="AA325" s="5"/>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -10358,7 +10393,7 @@
       <c r="Z326" s="5"/>
       <c r="AA326" s="5"/>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -10387,7 +10422,7 @@
       <c r="Z327" s="5"/>
       <c r="AA327" s="5"/>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -10416,7 +10451,7 @@
       <c r="Z328" s="5"/>
       <c r="AA328" s="5"/>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -10445,7 +10480,7 @@
       <c r="Z329" s="5"/>
       <c r="AA329" s="5"/>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -10474,7 +10509,7 @@
       <c r="Z330" s="5"/>
       <c r="AA330" s="5"/>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -10503,7 +10538,7 @@
       <c r="Z331" s="5"/>
       <c r="AA331" s="5"/>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -10532,7 +10567,7 @@
       <c r="Z332" s="5"/>
       <c r="AA332" s="5"/>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -10561,7 +10596,7 @@
       <c r="Z333" s="5"/>
       <c r="AA333" s="5"/>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -10590,7 +10625,7 @@
       <c r="Z334" s="5"/>
       <c r="AA334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -10619,7 +10654,7 @@
       <c r="Z335" s="5"/>
       <c r="AA335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -10648,7 +10683,7 @@
       <c r="Z336" s="5"/>
       <c r="AA336" s="5"/>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -10677,7 +10712,7 @@
       <c r="Z337" s="5"/>
       <c r="AA337" s="5"/>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -10706,7 +10741,7 @@
       <c r="Z338" s="5"/>
       <c r="AA338" s="5"/>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -10735,7 +10770,7 @@
       <c r="Z339" s="5"/>
       <c r="AA339" s="5"/>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -10764,7 +10799,7 @@
       <c r="Z340" s="5"/>
       <c r="AA340" s="5"/>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -10793,7 +10828,7 @@
       <c r="Z341" s="5"/>
       <c r="AA341" s="5"/>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -10822,7 +10857,7 @@
       <c r="Z342" s="5"/>
       <c r="AA342" s="5"/>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -10851,7 +10886,7 @@
       <c r="Z343" s="5"/>
       <c r="AA343" s="5"/>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -10880,7 +10915,7 @@
       <c r="Z344" s="5"/>
       <c r="AA344" s="5"/>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -10909,7 +10944,7 @@
       <c r="Z345" s="5"/>
       <c r="AA345" s="5"/>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -10938,7 +10973,7 @@
       <c r="Z346" s="5"/>
       <c r="AA346" s="5"/>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -10967,7 +11002,7 @@
       <c r="Z347" s="5"/>
       <c r="AA347" s="5"/>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -10996,7 +11031,7 @@
       <c r="Z348" s="5"/>
       <c r="AA348" s="5"/>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -11025,7 +11060,7 @@
       <c r="Z349" s="5"/>
       <c r="AA349" s="5"/>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -11054,7 +11089,7 @@
       <c r="Z350" s="5"/>
       <c r="AA350" s="5"/>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -11083,7 +11118,7 @@
       <c r="Z351" s="5"/>
       <c r="AA351" s="5"/>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -11112,7 +11147,7 @@
       <c r="Z352" s="5"/>
       <c r="AA352" s="5"/>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -11141,7 +11176,7 @@
       <c r="Z353" s="5"/>
       <c r="AA353" s="5"/>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -11170,7 +11205,7 @@
       <c r="Z354" s="5"/>
       <c r="AA354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -11199,7 +11234,7 @@
       <c r="Z355" s="5"/>
       <c r="AA355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -11228,7 +11263,7 @@
       <c r="Z356" s="5"/>
       <c r="AA356" s="5"/>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -11257,7 +11292,7 @@
       <c r="Z357" s="5"/>
       <c r="AA357" s="5"/>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -11286,7 +11321,7 @@
       <c r="Z358" s="5"/>
       <c r="AA358" s="5"/>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -11315,7 +11350,7 @@
       <c r="Z359" s="5"/>
       <c r="AA359" s="5"/>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -11344,7 +11379,7 @@
       <c r="Z360" s="5"/>
       <c r="AA360" s="5"/>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -11373,7 +11408,7 @@
       <c r="Z361" s="5"/>
       <c r="AA361" s="5"/>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -11402,7 +11437,7 @@
       <c r="Z362" s="5"/>
       <c r="AA362" s="5"/>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -11431,7 +11466,7 @@
       <c r="Z363" s="5"/>
       <c r="AA363" s="5"/>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -11460,7 +11495,7 @@
       <c r="Z364" s="5"/>
       <c r="AA364" s="5"/>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -11489,7 +11524,7 @@
       <c r="Z365" s="5"/>
       <c r="AA365" s="5"/>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -11518,7 +11553,7 @@
       <c r="Z366" s="5"/>
       <c r="AA366" s="5"/>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -11547,7 +11582,7 @@
       <c r="Z367" s="5"/>
       <c r="AA367" s="5"/>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -11576,7 +11611,7 @@
       <c r="Z368" s="5"/>
       <c r="AA368" s="5"/>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -11605,7 +11640,7 @@
       <c r="Z369" s="5"/>
       <c r="AA369" s="5"/>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -11634,7 +11669,7 @@
       <c r="Z370" s="5"/>
       <c r="AA370" s="5"/>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -11663,7 +11698,7 @@
       <c r="Z371" s="5"/>
       <c r="AA371" s="5"/>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -11692,7 +11727,7 @@
       <c r="Z372" s="5"/>
       <c r="AA372" s="5"/>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -11721,7 +11756,7 @@
       <c r="Z373" s="5"/>
       <c r="AA373" s="5"/>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -11750,7 +11785,7 @@
       <c r="Z374" s="5"/>
       <c r="AA374" s="5"/>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -11779,7 +11814,7 @@
       <c r="Z375" s="5"/>
       <c r="AA375" s="5"/>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -11808,7 +11843,7 @@
       <c r="Z376" s="5"/>
       <c r="AA376" s="5"/>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -11837,7 +11872,7 @@
       <c r="Z377" s="5"/>
       <c r="AA377" s="5"/>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -11866,7 +11901,7 @@
       <c r="Z378" s="5"/>
       <c r="AA378" s="5"/>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -11895,7 +11930,7 @@
       <c r="Z379" s="5"/>
       <c r="AA379" s="5"/>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -11924,7 +11959,7 @@
       <c r="Z380" s="5"/>
       <c r="AA380" s="5"/>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -11953,7 +11988,7 @@
       <c r="Z381" s="5"/>
       <c r="AA381" s="5"/>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -11982,7 +12017,7 @@
       <c r="Z382" s="5"/>
       <c r="AA382" s="5"/>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -12011,7 +12046,7 @@
       <c r="Z383" s="5"/>
       <c r="AA383" s="5"/>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -12040,7 +12075,7 @@
       <c r="Z384" s="5"/>
       <c r="AA384" s="5"/>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -12069,7 +12104,7 @@
       <c r="Z385" s="5"/>
       <c r="AA385" s="5"/>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -12098,7 +12133,7 @@
       <c r="Z386" s="5"/>
       <c r="AA386" s="5"/>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -12127,7 +12162,7 @@
       <c r="Z387" s="5"/>
       <c r="AA387" s="5"/>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -12156,7 +12191,7 @@
       <c r="Z388" s="5"/>
       <c r="AA388" s="5"/>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -12185,7 +12220,7 @@
       <c r="Z389" s="5"/>
       <c r="AA389" s="5"/>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -12214,7 +12249,7 @@
       <c r="Z390" s="5"/>
       <c r="AA390" s="5"/>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -12243,7 +12278,7 @@
       <c r="Z391" s="5"/>
       <c r="AA391" s="5"/>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -12272,7 +12307,7 @@
       <c r="Z392" s="5"/>
       <c r="AA392" s="5"/>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -12301,7 +12336,7 @@
       <c r="Z393" s="5"/>
       <c r="AA393" s="5"/>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -12330,7 +12365,7 @@
       <c r="Z394" s="5"/>
       <c r="AA394" s="5"/>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -12359,7 +12394,7 @@
       <c r="Z395" s="5"/>
       <c r="AA395" s="5"/>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -12388,7 +12423,7 @@
       <c r="Z396" s="5"/>
       <c r="AA396" s="5"/>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -12417,7 +12452,7 @@
       <c r="Z397" s="5"/>
       <c r="AA397" s="5"/>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -12446,7 +12481,7 @@
       <c r="Z398" s="5"/>
       <c r="AA398" s="5"/>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -12475,7 +12510,7 @@
       <c r="Z399" s="5"/>
       <c r="AA399" s="5"/>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -12504,7 +12539,7 @@
       <c r="Z400" s="5"/>
       <c r="AA400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -12533,7 +12568,7 @@
       <c r="Z401" s="5"/>
       <c r="AA401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -12562,7 +12597,7 @@
       <c r="Z402" s="5"/>
       <c r="AA402" s="5"/>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -12591,7 +12626,7 @@
       <c r="Z403" s="5"/>
       <c r="AA403" s="5"/>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -12620,7 +12655,7 @@
       <c r="Z404" s="5"/>
       <c r="AA404" s="5"/>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -12649,7 +12684,7 @@
       <c r="Z405" s="5"/>
       <c r="AA405" s="5"/>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -12678,7 +12713,7 @@
       <c r="Z406" s="5"/>
       <c r="AA406" s="5"/>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -12707,7 +12742,7 @@
       <c r="Z407" s="5"/>
       <c r="AA407" s="5"/>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -12736,7 +12771,7 @@
       <c r="Z408" s="5"/>
       <c r="AA408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -12765,7 +12800,7 @@
       <c r="Z409" s="5"/>
       <c r="AA409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -12794,7 +12829,7 @@
       <c r="Z410" s="5"/>
       <c r="AA410" s="5"/>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -12823,7 +12858,7 @@
       <c r="Z411" s="5"/>
       <c r="AA411" s="5"/>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -12852,7 +12887,7 @@
       <c r="Z412" s="5"/>
       <c r="AA412" s="5"/>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -12881,7 +12916,7 @@
       <c r="Z413" s="5"/>
       <c r="AA413" s="5"/>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -12910,7 +12945,7 @@
       <c r="Z414" s="5"/>
       <c r="AA414" s="5"/>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -12939,7 +12974,7 @@
       <c r="Z415" s="5"/>
       <c r="AA415" s="5"/>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -12968,7 +13003,7 @@
       <c r="Z416" s="5"/>
       <c r="AA416" s="5"/>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -12997,7 +13032,7 @@
       <c r="Z417" s="5"/>
       <c r="AA417" s="5"/>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -13026,7 +13061,7 @@
       <c r="Z418" s="5"/>
       <c r="AA418" s="5"/>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -13055,7 +13090,7 @@
       <c r="Z419" s="5"/>
       <c r="AA419" s="5"/>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -13084,7 +13119,7 @@
       <c r="Z420" s="5"/>
       <c r="AA420" s="5"/>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -13113,7 +13148,7 @@
       <c r="Z421" s="5"/>
       <c r="AA421" s="5"/>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -13142,7 +13177,7 @@
       <c r="Z422" s="5"/>
       <c r="AA422" s="5"/>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -13171,7 +13206,7 @@
       <c r="Z423" s="5"/>
       <c r="AA423" s="5"/>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -13200,7 +13235,7 @@
       <c r="Z424" s="5"/>
       <c r="AA424" s="5"/>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -13229,7 +13264,7 @@
       <c r="Z425" s="5"/>
       <c r="AA425" s="5"/>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -13258,7 +13293,7 @@
       <c r="Z426" s="5"/>
       <c r="AA426" s="5"/>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -13287,7 +13322,7 @@
       <c r="Z427" s="5"/>
       <c r="AA427" s="5"/>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -13316,7 +13351,7 @@
       <c r="Z428" s="5"/>
       <c r="AA428" s="5"/>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -13345,7 +13380,7 @@
       <c r="Z429" s="5"/>
       <c r="AA429" s="5"/>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -13374,7 +13409,7 @@
       <c r="Z430" s="5"/>
       <c r="AA430" s="5"/>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -13403,7 +13438,7 @@
       <c r="Z431" s="5"/>
       <c r="AA431" s="5"/>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -13432,7 +13467,7 @@
       <c r="Z432" s="5"/>
       <c r="AA432" s="5"/>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -13461,7 +13496,7 @@
       <c r="Z433" s="5"/>
       <c r="AA433" s="5"/>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -13490,7 +13525,7 @@
       <c r="Z434" s="5"/>
       <c r="AA434" s="5"/>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -13519,7 +13554,7 @@
       <c r="Z435" s="5"/>
       <c r="AA435" s="5"/>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -13548,7 +13583,7 @@
       <c r="Z436" s="5"/>
       <c r="AA436" s="5"/>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -13577,7 +13612,7 @@
       <c r="Z437" s="5"/>
       <c r="AA437" s="5"/>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -13606,7 +13641,7 @@
       <c r="Z438" s="5"/>
       <c r="AA438" s="5"/>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -13635,7 +13670,7 @@
       <c r="Z439" s="5"/>
       <c r="AA439" s="5"/>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -13664,7 +13699,7 @@
       <c r="Z440" s="5"/>
       <c r="AA440" s="5"/>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -13693,7 +13728,7 @@
       <c r="Z441" s="5"/>
       <c r="AA441" s="5"/>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -13722,7 +13757,7 @@
       <c r="Z442" s="5"/>
       <c r="AA442" s="5"/>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -13751,7 +13786,7 @@
       <c r="Z443" s="5"/>
       <c r="AA443" s="5"/>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -13780,7 +13815,7 @@
       <c r="Z444" s="5"/>
       <c r="AA444" s="5"/>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -13809,7 +13844,7 @@
       <c r="Z445" s="5"/>
       <c r="AA445" s="5"/>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -13838,7 +13873,7 @@
       <c r="Z446" s="5"/>
       <c r="AA446" s="5"/>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -13867,7 +13902,7 @@
       <c r="Z447" s="5"/>
       <c r="AA447" s="5"/>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -13896,7 +13931,7 @@
       <c r="Z448" s="5"/>
       <c r="AA448" s="5"/>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -13925,7 +13960,7 @@
       <c r="Z449" s="5"/>
       <c r="AA449" s="5"/>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -13954,7 +13989,7 @@
       <c r="Z450" s="5"/>
       <c r="AA450" s="5"/>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -13983,7 +14018,7 @@
       <c r="Z451" s="5"/>
       <c r="AA451" s="5"/>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -14012,7 +14047,7 @@
       <c r="Z452" s="5"/>
       <c r="AA452" s="5"/>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -14041,7 +14076,7 @@
       <c r="Z453" s="5"/>
       <c r="AA453" s="5"/>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -14070,7 +14105,7 @@
       <c r="Z454" s="5"/>
       <c r="AA454" s="5"/>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -14099,7 +14134,7 @@
       <c r="Z455" s="5"/>
       <c r="AA455" s="5"/>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -14128,7 +14163,7 @@
       <c r="Z456" s="5"/>
       <c r="AA456" s="5"/>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -14157,7 +14192,7 @@
       <c r="Z457" s="5"/>
       <c r="AA457" s="5"/>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -14186,7 +14221,7 @@
       <c r="Z458" s="5"/>
       <c r="AA458" s="5"/>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -14215,7 +14250,7 @@
       <c r="Z459" s="5"/>
       <c r="AA459" s="5"/>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -14244,7 +14279,7 @@
       <c r="Z460" s="5"/>
       <c r="AA460" s="5"/>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -14273,7 +14308,7 @@
       <c r="Z461" s="5"/>
       <c r="AA461" s="5"/>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -14302,7 +14337,7 @@
       <c r="Z462" s="5"/>
       <c r="AA462" s="5"/>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -14331,7 +14366,7 @@
       <c r="Z463" s="5"/>
       <c r="AA463" s="5"/>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -14360,7 +14395,7 @@
       <c r="Z464" s="5"/>
       <c r="AA464" s="5"/>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -14389,7 +14424,7 @@
       <c r="Z465" s="5"/>
       <c r="AA465" s="5"/>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -14418,7 +14453,7 @@
       <c r="Z466" s="5"/>
       <c r="AA466" s="5"/>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -14447,7 +14482,7 @@
       <c r="Z467" s="5"/>
       <c r="AA467" s="5"/>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -14476,7 +14511,7 @@
       <c r="Z468" s="5"/>
       <c r="AA468" s="5"/>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -14505,7 +14540,7 @@
       <c r="Z469" s="5"/>
       <c r="AA469" s="5"/>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -14534,7 +14569,7 @@
       <c r="Z470" s="5"/>
       <c r="AA470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -14563,7 +14598,7 @@
       <c r="Z471" s="5"/>
       <c r="AA471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -14592,7 +14627,7 @@
       <c r="Z472" s="5"/>
       <c r="AA472" s="5"/>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -14621,7 +14656,7 @@
       <c r="Z473" s="5"/>
       <c r="AA473" s="5"/>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -14650,7 +14685,7 @@
       <c r="Z474" s="5"/>
       <c r="AA474" s="5"/>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -14679,7 +14714,7 @@
       <c r="Z475" s="5"/>
       <c r="AA475" s="5"/>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -14708,7 +14743,7 @@
       <c r="Z476" s="5"/>
       <c r="AA476" s="5"/>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -14737,7 +14772,7 @@
       <c r="Z477" s="5"/>
       <c r="AA477" s="5"/>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -14766,7 +14801,7 @@
       <c r="Z478" s="5"/>
       <c r="AA478" s="5"/>
     </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -14795,7 +14830,7 @@
       <c r="Z479" s="5"/>
       <c r="AA479" s="5"/>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -14824,7 +14859,7 @@
       <c r="Z480" s="5"/>
       <c r="AA480" s="5"/>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -14853,7 +14888,7 @@
       <c r="Z481" s="5"/>
       <c r="AA481" s="5"/>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -14882,7 +14917,7 @@
       <c r="Z482" s="5"/>
       <c r="AA482" s="5"/>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -14911,7 +14946,7 @@
       <c r="Z483" s="5"/>
       <c r="AA483" s="5"/>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -14940,7 +14975,7 @@
       <c r="Z484" s="5"/>
       <c r="AA484" s="5"/>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -14969,7 +15004,7 @@
       <c r="Z485" s="5"/>
       <c r="AA485" s="5"/>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -14998,7 +15033,7 @@
       <c r="Z486" s="5"/>
       <c r="AA486" s="5"/>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -15027,7 +15062,7 @@
       <c r="Z487" s="5"/>
       <c r="AA487" s="5"/>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -15056,7 +15091,7 @@
       <c r="Z488" s="5"/>
       <c r="AA488" s="5"/>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -15085,7 +15120,7 @@
       <c r="Z489" s="5"/>
       <c r="AA489" s="5"/>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -15114,7 +15149,7 @@
       <c r="Z490" s="5"/>
       <c r="AA490" s="5"/>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -15143,7 +15178,7 @@
       <c r="Z491" s="5"/>
       <c r="AA491" s="5"/>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -15172,7 +15207,7 @@
       <c r="Z492" s="5"/>
       <c r="AA492" s="5"/>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -15201,7 +15236,7 @@
       <c r="Z493" s="5"/>
       <c r="AA493" s="5"/>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -15230,7 +15265,7 @@
       <c r="Z494" s="5"/>
       <c r="AA494" s="5"/>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -15259,7 +15294,7 @@
       <c r="Z495" s="5"/>
       <c r="AA495" s="5"/>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -15288,7 +15323,7 @@
       <c r="Z496" s="5"/>
       <c r="AA496" s="5"/>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -15317,7 +15352,7 @@
       <c r="Z497" s="5"/>
       <c r="AA497" s="5"/>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -15346,7 +15381,7 @@
       <c r="Z498" s="5"/>
       <c r="AA498" s="5"/>
     </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -15375,7 +15410,7 @@
       <c r="Z499" s="5"/>
       <c r="AA499" s="5"/>
     </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -15404,7 +15439,7 @@
       <c r="Z500" s="5"/>
       <c r="AA500" s="5"/>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -15433,7 +15468,7 @@
       <c r="Z501" s="5"/>
       <c r="AA501" s="5"/>
     </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -15462,7 +15497,7 @@
       <c r="Z502" s="5"/>
       <c r="AA502" s="5"/>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -15491,7 +15526,7 @@
       <c r="Z503" s="5"/>
       <c r="AA503" s="5"/>
     </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -15520,7 +15555,7 @@
       <c r="Z504" s="5"/>
       <c r="AA504" s="5"/>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -15549,7 +15584,7 @@
       <c r="Z505" s="5"/>
       <c r="AA505" s="5"/>
     </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -15578,7 +15613,7 @@
       <c r="Z506" s="5"/>
       <c r="AA506" s="5"/>
     </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -15607,7 +15642,7 @@
       <c r="Z507" s="5"/>
       <c r="AA507" s="5"/>
     </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -15636,7 +15671,7 @@
       <c r="Z508" s="5"/>
       <c r="AA508" s="5"/>
     </row>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -15665,7 +15700,7 @@
       <c r="Z509" s="5"/>
       <c r="AA509" s="5"/>
     </row>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -15694,7 +15729,7 @@
       <c r="Z510" s="5"/>
       <c r="AA510" s="5"/>
     </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -15723,7 +15758,7 @@
       <c r="Z511" s="5"/>
       <c r="AA511" s="5"/>
     </row>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -15752,7 +15787,7 @@
       <c r="Z512" s="5"/>
       <c r="AA512" s="5"/>
     </row>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -15781,7 +15816,7 @@
       <c r="Z513" s="5"/>
       <c r="AA513" s="5"/>
     </row>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -15810,7 +15845,7 @@
       <c r="Z514" s="5"/>
       <c r="AA514" s="5"/>
     </row>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -15839,7 +15874,7 @@
       <c r="Z515" s="5"/>
       <c r="AA515" s="5"/>
     </row>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -15868,7 +15903,7 @@
       <c r="Z516" s="5"/>
       <c r="AA516" s="5"/>
     </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -15897,7 +15932,7 @@
       <c r="Z517" s="5"/>
       <c r="AA517" s="5"/>
     </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -15926,7 +15961,7 @@
       <c r="Z518" s="5"/>
       <c r="AA518" s="5"/>
     </row>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -15955,7 +15990,7 @@
       <c r="Z519" s="5"/>
       <c r="AA519" s="5"/>
     </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -15984,7 +16019,7 @@
       <c r="Z520" s="5"/>
       <c r="AA520" s="5"/>
     </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -16013,7 +16048,7 @@
       <c r="Z521" s="5"/>
       <c r="AA521" s="5"/>
     </row>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -16042,7 +16077,7 @@
       <c r="Z522" s="5"/>
       <c r="AA522" s="5"/>
     </row>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -16071,7 +16106,7 @@
       <c r="Z523" s="5"/>
       <c r="AA523" s="5"/>
     </row>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -16100,7 +16135,7 @@
       <c r="Z524" s="5"/>
       <c r="AA524" s="5"/>
     </row>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -16129,7 +16164,7 @@
       <c r="Z525" s="5"/>
       <c r="AA525" s="5"/>
     </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -16158,7 +16193,7 @@
       <c r="Z526" s="5"/>
       <c r="AA526" s="5"/>
     </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -16187,7 +16222,7 @@
       <c r="Z527" s="5"/>
       <c r="AA527" s="5"/>
     </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -16216,7 +16251,7 @@
       <c r="Z528" s="5"/>
       <c r="AA528" s="5"/>
     </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -16245,7 +16280,7 @@
       <c r="Z529" s="5"/>
       <c r="AA529" s="5"/>
     </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -16274,7 +16309,7 @@
       <c r="Z530" s="5"/>
       <c r="AA530" s="5"/>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -16303,7 +16338,7 @@
       <c r="Z531" s="5"/>
       <c r="AA531" s="5"/>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -16332,7 +16367,7 @@
       <c r="Z532" s="5"/>
       <c r="AA532" s="5"/>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -16361,7 +16396,7 @@
       <c r="Z533" s="5"/>
       <c r="AA533" s="5"/>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -16390,7 +16425,7 @@
       <c r="Z534" s="5"/>
       <c r="AA534" s="5"/>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -16419,7 +16454,7 @@
       <c r="Z535" s="5"/>
       <c r="AA535" s="5"/>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -16448,7 +16483,7 @@
       <c r="Z536" s="5"/>
       <c r="AA536" s="5"/>
     </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -16477,7 +16512,7 @@
       <c r="Z537" s="5"/>
       <c r="AA537" s="5"/>
     </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -16506,7 +16541,7 @@
       <c r="Z538" s="5"/>
       <c r="AA538" s="5"/>
     </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -16535,7 +16570,7 @@
       <c r="Z539" s="5"/>
       <c r="AA539" s="5"/>
     </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -16564,7 +16599,7 @@
       <c r="Z540" s="5"/>
       <c r="AA540" s="5"/>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -16593,7 +16628,7 @@
       <c r="Z541" s="5"/>
       <c r="AA541" s="5"/>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -16622,7 +16657,7 @@
       <c r="Z542" s="5"/>
       <c r="AA542" s="5"/>
     </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -16651,7 +16686,7 @@
       <c r="Z543" s="5"/>
       <c r="AA543" s="5"/>
     </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -16680,7 +16715,7 @@
       <c r="Z544" s="5"/>
       <c r="AA544" s="5"/>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -16709,7 +16744,7 @@
       <c r="Z545" s="5"/>
       <c r="AA545" s="5"/>
     </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -16738,7 +16773,7 @@
       <c r="Z546" s="5"/>
       <c r="AA546" s="5"/>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -16767,7 +16802,7 @@
       <c r="Z547" s="5"/>
       <c r="AA547" s="5"/>
     </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -16796,7 +16831,7 @@
       <c r="Z548" s="5"/>
       <c r="AA548" s="5"/>
     </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -16825,7 +16860,7 @@
       <c r="Z549" s="5"/>
       <c r="AA549" s="5"/>
     </row>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -16854,7 +16889,7 @@
       <c r="Z550" s="5"/>
       <c r="AA550" s="5"/>
     </row>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -16883,7 +16918,7 @@
       <c r="Z551" s="5"/>
       <c r="AA551" s="5"/>
     </row>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -16912,7 +16947,7 @@
       <c r="Z552" s="5"/>
       <c r="AA552" s="5"/>
     </row>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -16941,7 +16976,7 @@
       <c r="Z553" s="5"/>
       <c r="AA553" s="5"/>
     </row>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
@@ -16970,7 +17005,7 @@
       <c r="Z554" s="5"/>
       <c r="AA554" s="5"/>
     </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
@@ -16999,7 +17034,7 @@
       <c r="Z555" s="5"/>
       <c r="AA555" s="5"/>
     </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -17028,7 +17063,7 @@
       <c r="Z556" s="5"/>
       <c r="AA556" s="5"/>
     </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
@@ -17057,7 +17092,7 @@
       <c r="Z557" s="5"/>
       <c r="AA557" s="5"/>
     </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -17086,7 +17121,7 @@
       <c r="Z558" s="5"/>
       <c r="AA558" s="5"/>
     </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
@@ -17115,7 +17150,7 @@
       <c r="Z559" s="5"/>
       <c r="AA559" s="5"/>
     </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
@@ -17144,7 +17179,7 @@
       <c r="Z560" s="5"/>
       <c r="AA560" s="5"/>
     </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
@@ -17173,7 +17208,7 @@
       <c r="Z561" s="5"/>
       <c r="AA561" s="5"/>
     </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
@@ -17202,7 +17237,7 @@
       <c r="Z562" s="5"/>
       <c r="AA562" s="5"/>
     </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
@@ -17231,7 +17266,7 @@
       <c r="Z563" s="5"/>
       <c r="AA563" s="5"/>
     </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
@@ -17260,7 +17295,7 @@
       <c r="Z564" s="5"/>
       <c r="AA564" s="5"/>
     </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
@@ -17289,7 +17324,7 @@
       <c r="Z565" s="5"/>
       <c r="AA565" s="5"/>
     </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
@@ -17318,7 +17353,7 @@
       <c r="Z566" s="5"/>
       <c r="AA566" s="5"/>
     </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
@@ -17347,7 +17382,7 @@
       <c r="Z567" s="5"/>
       <c r="AA567" s="5"/>
     </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
@@ -17376,7 +17411,7 @@
       <c r="Z568" s="5"/>
       <c r="AA568" s="5"/>
     </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
@@ -17405,7 +17440,7 @@
       <c r="Z569" s="5"/>
       <c r="AA569" s="5"/>
     </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
@@ -17434,7 +17469,7 @@
       <c r="Z570" s="5"/>
       <c r="AA570" s="5"/>
     </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
@@ -17463,7 +17498,7 @@
       <c r="Z571" s="5"/>
       <c r="AA571" s="5"/>
     </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
@@ -17492,7 +17527,7 @@
       <c r="Z572" s="5"/>
       <c r="AA572" s="5"/>
     </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
@@ -17521,7 +17556,7 @@
       <c r="Z573" s="5"/>
       <c r="AA573" s="5"/>
     </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
@@ -17550,7 +17585,7 @@
       <c r="Z574" s="5"/>
       <c r="AA574" s="5"/>
     </row>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
@@ -17579,7 +17614,7 @@
       <c r="Z575" s="5"/>
       <c r="AA575" s="5"/>
     </row>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
@@ -17608,7 +17643,7 @@
       <c r="Z576" s="5"/>
       <c r="AA576" s="5"/>
     </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
@@ -17637,7 +17672,7 @@
       <c r="Z577" s="5"/>
       <c r="AA577" s="5"/>
     </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
@@ -17666,7 +17701,7 @@
       <c r="Z578" s="5"/>
       <c r="AA578" s="5"/>
     </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
@@ -17695,7 +17730,7 @@
       <c r="Z579" s="5"/>
       <c r="AA579" s="5"/>
     </row>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
@@ -17724,7 +17759,7 @@
       <c r="Z580" s="5"/>
       <c r="AA580" s="5"/>
     </row>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
@@ -17753,7 +17788,7 @@
       <c r="Z581" s="5"/>
       <c r="AA581" s="5"/>
     </row>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
@@ -17782,7 +17817,7 @@
       <c r="Z582" s="5"/>
       <c r="AA582" s="5"/>
     </row>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
@@ -17811,7 +17846,7 @@
       <c r="Z583" s="5"/>
       <c r="AA583" s="5"/>
     </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
@@ -17840,7 +17875,7 @@
       <c r="Z584" s="5"/>
       <c r="AA584" s="5"/>
     </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
@@ -17869,7 +17904,7 @@
       <c r="Z585" s="5"/>
       <c r="AA585" s="5"/>
     </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
@@ -17898,7 +17933,7 @@
       <c r="Z586" s="5"/>
       <c r="AA586" s="5"/>
     </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
@@ -17927,7 +17962,7 @@
       <c r="Z587" s="5"/>
       <c r="AA587" s="5"/>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
@@ -17956,7 +17991,7 @@
       <c r="Z588" s="5"/>
       <c r="AA588" s="5"/>
     </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
@@ -17985,7 +18020,7 @@
       <c r="Z589" s="5"/>
       <c r="AA589" s="5"/>
     </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
@@ -18014,7 +18049,7 @@
       <c r="Z590" s="5"/>
       <c r="AA590" s="5"/>
     </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
@@ -18043,7 +18078,7 @@
       <c r="Z591" s="5"/>
       <c r="AA591" s="5"/>
     </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
@@ -18072,7 +18107,7 @@
       <c r="Z592" s="5"/>
       <c r="AA592" s="5"/>
     </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
@@ -18101,7 +18136,7 @@
       <c r="Z593" s="5"/>
       <c r="AA593" s="5"/>
     </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
@@ -18130,7 +18165,7 @@
       <c r="Z594" s="5"/>
       <c r="AA594" s="5"/>
     </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
@@ -18159,7 +18194,7 @@
       <c r="Z595" s="5"/>
       <c r="AA595" s="5"/>
     </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
@@ -18188,7 +18223,7 @@
       <c r="Z596" s="5"/>
       <c r="AA596" s="5"/>
     </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
@@ -18217,7 +18252,7 @@
       <c r="Z597" s="5"/>
       <c r="AA597" s="5"/>
     </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
@@ -18246,7 +18281,7 @@
       <c r="Z598" s="5"/>
       <c r="AA598" s="5"/>
     </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
@@ -18275,7 +18310,7 @@
       <c r="Z599" s="5"/>
       <c r="AA599" s="5"/>
     </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
@@ -18304,7 +18339,7 @@
       <c r="Z600" s="5"/>
       <c r="AA600" s="5"/>
     </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
@@ -18333,7 +18368,7 @@
       <c r="Z601" s="5"/>
       <c r="AA601" s="5"/>
     </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
@@ -18362,7 +18397,7 @@
       <c r="Z602" s="5"/>
       <c r="AA602" s="5"/>
     </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
@@ -18391,7 +18426,7 @@
       <c r="Z603" s="5"/>
       <c r="AA603" s="5"/>
     </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
@@ -18420,7 +18455,7 @@
       <c r="Z604" s="5"/>
       <c r="AA604" s="5"/>
     </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
@@ -18449,7 +18484,7 @@
       <c r="Z605" s="5"/>
       <c r="AA605" s="5"/>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
@@ -18478,7 +18513,7 @@
       <c r="Z606" s="5"/>
       <c r="AA606" s="5"/>
     </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
@@ -18507,7 +18542,7 @@
       <c r="Z607" s="5"/>
       <c r="AA607" s="5"/>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
@@ -18536,7 +18571,7 @@
       <c r="Z608" s="5"/>
       <c r="AA608" s="5"/>
     </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
@@ -18565,7 +18600,7 @@
       <c r="Z609" s="5"/>
       <c r="AA609" s="5"/>
     </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="6"/>
@@ -18594,7 +18629,7 @@
       <c r="Z610" s="5"/>
       <c r="AA610" s="5"/>
     </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
@@ -18623,7 +18658,7 @@
       <c r="Z611" s="5"/>
       <c r="AA611" s="5"/>
     </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
@@ -18652,7 +18687,7 @@
       <c r="Z612" s="5"/>
       <c r="AA612" s="5"/>
     </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
@@ -18681,7 +18716,7 @@
       <c r="Z613" s="5"/>
       <c r="AA613" s="5"/>
     </row>
-    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
@@ -18710,7 +18745,7 @@
       <c r="Z614" s="5"/>
       <c r="AA614" s="5"/>
     </row>
-    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
@@ -18739,7 +18774,7 @@
       <c r="Z615" s="5"/>
       <c r="AA615" s="5"/>
     </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
@@ -18768,7 +18803,7 @@
       <c r="Z616" s="5"/>
       <c r="AA616" s="5"/>
     </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
@@ -18797,7 +18832,7 @@
       <c r="Z617" s="5"/>
       <c r="AA617" s="5"/>
     </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
@@ -18826,7 +18861,7 @@
       <c r="Z618" s="5"/>
       <c r="AA618" s="5"/>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="6"/>
@@ -18855,7 +18890,7 @@
       <c r="Z619" s="5"/>
       <c r="AA619" s="5"/>
     </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="6"/>
@@ -18884,7 +18919,7 @@
       <c r="Z620" s="5"/>
       <c r="AA620" s="5"/>
     </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="6"/>
@@ -18913,7 +18948,7 @@
       <c r="Z621" s="5"/>
       <c r="AA621" s="5"/>
     </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="6"/>
@@ -18942,7 +18977,7 @@
       <c r="Z622" s="5"/>
       <c r="AA622" s="5"/>
     </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="6"/>
@@ -18971,7 +19006,7 @@
       <c r="Z623" s="5"/>
       <c r="AA623" s="5"/>
     </row>
-    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="6"/>
@@ -19000,7 +19035,7 @@
       <c r="Z624" s="5"/>
       <c r="AA624" s="5"/>
     </row>
-    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="6"/>
@@ -19029,7 +19064,7 @@
       <c r="Z625" s="5"/>
       <c r="AA625" s="5"/>
     </row>
-    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="6"/>
@@ -19058,7 +19093,7 @@
       <c r="Z626" s="5"/>
       <c r="AA626" s="5"/>
     </row>
-    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="6"/>
@@ -19087,7 +19122,7 @@
       <c r="Z627" s="5"/>
       <c r="AA627" s="5"/>
     </row>
-    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="6"/>
@@ -19116,7 +19151,7 @@
       <c r="Z628" s="5"/>
       <c r="AA628" s="5"/>
     </row>
-    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="6"/>
@@ -19145,7 +19180,7 @@
       <c r="Z629" s="5"/>
       <c r="AA629" s="5"/>
     </row>
-    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="6"/>
@@ -19174,7 +19209,7 @@
       <c r="Z630" s="5"/>
       <c r="AA630" s="5"/>
     </row>
-    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
@@ -19203,7 +19238,7 @@
       <c r="Z631" s="5"/>
       <c r="AA631" s="5"/>
     </row>
-    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="6"/>
@@ -19232,7 +19267,7 @@
       <c r="Z632" s="5"/>
       <c r="AA632" s="5"/>
     </row>
-    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="6"/>
@@ -19261,7 +19296,7 @@
       <c r="Z633" s="5"/>
       <c r="AA633" s="5"/>
     </row>
-    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="6"/>
@@ -19290,7 +19325,7 @@
       <c r="Z634" s="5"/>
       <c r="AA634" s="5"/>
     </row>
-    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="6"/>
@@ -19319,7 +19354,7 @@
       <c r="Z635" s="5"/>
       <c r="AA635" s="5"/>
     </row>
-    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="6"/>
@@ -19348,7 +19383,7 @@
       <c r="Z636" s="5"/>
       <c r="AA636" s="5"/>
     </row>
-    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="6"/>
@@ -19377,7 +19412,7 @@
       <c r="Z637" s="5"/>
       <c r="AA637" s="5"/>
     </row>
-    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="6"/>
@@ -19406,7 +19441,7 @@
       <c r="Z638" s="5"/>
       <c r="AA638" s="5"/>
     </row>
-    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="6"/>
@@ -19435,7 +19470,7 @@
       <c r="Z639" s="5"/>
       <c r="AA639" s="5"/>
     </row>
-    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="6"/>
@@ -19464,7 +19499,7 @@
       <c r="Z640" s="5"/>
       <c r="AA640" s="5"/>
     </row>
-    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="6"/>
@@ -19493,7 +19528,7 @@
       <c r="Z641" s="5"/>
       <c r="AA641" s="5"/>
     </row>
-    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="6"/>
@@ -19522,7 +19557,7 @@
       <c r="Z642" s="5"/>
       <c r="AA642" s="5"/>
     </row>
-    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="6"/>
@@ -19551,7 +19586,7 @@
       <c r="Z643" s="5"/>
       <c r="AA643" s="5"/>
     </row>
-    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="6"/>
@@ -19580,7 +19615,7 @@
       <c r="Z644" s="5"/>
       <c r="AA644" s="5"/>
     </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="6"/>
@@ -19609,7 +19644,7 @@
       <c r="Z645" s="5"/>
       <c r="AA645" s="5"/>
     </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="6"/>
@@ -19638,7 +19673,7 @@
       <c r="Z646" s="5"/>
       <c r="AA646" s="5"/>
     </row>
-    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="6"/>
@@ -19667,7 +19702,7 @@
       <c r="Z647" s="5"/>
       <c r="AA647" s="5"/>
     </row>
-    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="6"/>
@@ -19696,7 +19731,7 @@
       <c r="Z648" s="5"/>
       <c r="AA648" s="5"/>
     </row>
-    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="6"/>
@@ -19725,7 +19760,7 @@
       <c r="Z649" s="5"/>
       <c r="AA649" s="5"/>
     </row>
-    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="6"/>
@@ -19754,7 +19789,7 @@
       <c r="Z650" s="5"/>
       <c r="AA650" s="5"/>
     </row>
-    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="6"/>
@@ -19783,7 +19818,7 @@
       <c r="Z651" s="5"/>
       <c r="AA651" s="5"/>
     </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="6"/>
@@ -19812,7 +19847,7 @@
       <c r="Z652" s="5"/>
       <c r="AA652" s="5"/>
     </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="6"/>
@@ -19841,7 +19876,7 @@
       <c r="Z653" s="5"/>
       <c r="AA653" s="5"/>
     </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="6"/>
@@ -19870,7 +19905,7 @@
       <c r="Z654" s="5"/>
       <c r="AA654" s="5"/>
     </row>
-    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="6"/>
@@ -19899,7 +19934,7 @@
       <c r="Z655" s="5"/>
       <c r="AA655" s="5"/>
     </row>
-    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="6"/>
@@ -19928,7 +19963,7 @@
       <c r="Z656" s="5"/>
       <c r="AA656" s="5"/>
     </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="6"/>
@@ -19957,7 +19992,7 @@
       <c r="Z657" s="5"/>
       <c r="AA657" s="5"/>
     </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="6"/>
@@ -19986,7 +20021,7 @@
       <c r="Z658" s="5"/>
       <c r="AA658" s="5"/>
     </row>
-    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="6"/>
@@ -20015,7 +20050,7 @@
       <c r="Z659" s="5"/>
       <c r="AA659" s="5"/>
     </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="6"/>
@@ -20044,7 +20079,7 @@
       <c r="Z660" s="5"/>
       <c r="AA660" s="5"/>
     </row>
-    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="6"/>
@@ -20073,7 +20108,7 @@
       <c r="Z661" s="5"/>
       <c r="AA661" s="5"/>
     </row>
-    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="6"/>
@@ -20102,7 +20137,7 @@
       <c r="Z662" s="5"/>
       <c r="AA662" s="5"/>
     </row>
-    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="6"/>
@@ -20131,7 +20166,7 @@
       <c r="Z663" s="5"/>
       <c r="AA663" s="5"/>
     </row>
-    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="6"/>
@@ -20160,7 +20195,7 @@
       <c r="Z664" s="5"/>
       <c r="AA664" s="5"/>
     </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -20189,7 +20224,7 @@
       <c r="Z665" s="5"/>
       <c r="AA665" s="5"/>
     </row>
-    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="6"/>
@@ -20218,7 +20253,7 @@
       <c r="Z666" s="5"/>
       <c r="AA666" s="5"/>
     </row>
-    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="6"/>
@@ -20247,7 +20282,7 @@
       <c r="Z667" s="5"/>
       <c r="AA667" s="5"/>
     </row>
-    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="6"/>
@@ -20276,7 +20311,7 @@
       <c r="Z668" s="5"/>
       <c r="AA668" s="5"/>
     </row>
-    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="6"/>
@@ -20305,7 +20340,7 @@
       <c r="Z669" s="5"/>
       <c r="AA669" s="5"/>
     </row>
-    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="6"/>
@@ -20334,7 +20369,7 @@
       <c r="Z670" s="5"/>
       <c r="AA670" s="5"/>
     </row>
-    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="6"/>
@@ -20363,7 +20398,7 @@
       <c r="Z671" s="5"/>
       <c r="AA671" s="5"/>
     </row>
-    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="6"/>
@@ -20392,7 +20427,7 @@
       <c r="Z672" s="5"/>
       <c r="AA672" s="5"/>
     </row>
-    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="6"/>
@@ -20421,7 +20456,7 @@
       <c r="Z673" s="5"/>
       <c r="AA673" s="5"/>
     </row>
-    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="6"/>
@@ -20450,7 +20485,7 @@
       <c r="Z674" s="5"/>
       <c r="AA674" s="5"/>
     </row>
-    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
@@ -20479,7 +20514,7 @@
       <c r="Z675" s="5"/>
       <c r="AA675" s="5"/>
     </row>
-    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="6"/>
@@ -20508,7 +20543,7 @@
       <c r="Z676" s="5"/>
       <c r="AA676" s="5"/>
     </row>
-    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="6"/>
@@ -20537,7 +20572,7 @@
       <c r="Z677" s="5"/>
       <c r="AA677" s="5"/>
     </row>
-    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="6"/>
@@ -20566,7 +20601,7 @@
       <c r="Z678" s="5"/>
       <c r="AA678" s="5"/>
     </row>
-    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="6"/>
@@ -20595,7 +20630,7 @@
       <c r="Z679" s="5"/>
       <c r="AA679" s="5"/>
     </row>
-    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="6"/>
@@ -20624,7 +20659,7 @@
       <c r="Z680" s="5"/>
       <c r="AA680" s="5"/>
     </row>
-    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="6"/>
@@ -20653,7 +20688,7 @@
       <c r="Z681" s="5"/>
       <c r="AA681" s="5"/>
     </row>
-    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="6"/>
@@ -20682,7 +20717,7 @@
       <c r="Z682" s="5"/>
       <c r="AA682" s="5"/>
     </row>
-    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="6"/>
@@ -20711,7 +20746,7 @@
       <c r="Z683" s="5"/>
       <c r="AA683" s="5"/>
     </row>
-    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="6"/>
@@ -20740,7 +20775,7 @@
       <c r="Z684" s="5"/>
       <c r="AA684" s="5"/>
     </row>
-    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
@@ -20769,7 +20804,7 @@
       <c r="Z685" s="5"/>
       <c r="AA685" s="5"/>
     </row>
-    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="6"/>
@@ -20798,7 +20833,7 @@
       <c r="Z686" s="5"/>
       <c r="AA686" s="5"/>
     </row>
-    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="6"/>
@@ -20827,7 +20862,7 @@
       <c r="Z687" s="5"/>
       <c r="AA687" s="5"/>
     </row>
-    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="6"/>
@@ -20856,7 +20891,7 @@
       <c r="Z688" s="5"/>
       <c r="AA688" s="5"/>
     </row>
-    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="6"/>
@@ -20885,7 +20920,7 @@
       <c r="Z689" s="5"/>
       <c r="AA689" s="5"/>
     </row>
-    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="6"/>
@@ -20914,7 +20949,7 @@
       <c r="Z690" s="5"/>
       <c r="AA690" s="5"/>
     </row>
-    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="6"/>
@@ -20943,7 +20978,7 @@
       <c r="Z691" s="5"/>
       <c r="AA691" s="5"/>
     </row>
-    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="6"/>
@@ -20972,7 +21007,7 @@
       <c r="Z692" s="5"/>
       <c r="AA692" s="5"/>
     </row>
-    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="6"/>
@@ -21001,7 +21036,7 @@
       <c r="Z693" s="5"/>
       <c r="AA693" s="5"/>
     </row>
-    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="6"/>
@@ -21030,7 +21065,7 @@
       <c r="Z694" s="5"/>
       <c r="AA694" s="5"/>
     </row>
-    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
@@ -21059,7 +21094,7 @@
       <c r="Z695" s="5"/>
       <c r="AA695" s="5"/>
     </row>
-    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="6"/>
@@ -21088,7 +21123,7 @@
       <c r="Z696" s="5"/>
       <c r="AA696" s="5"/>
     </row>
-    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="6"/>
@@ -21117,7 +21152,7 @@
       <c r="Z697" s="5"/>
       <c r="AA697" s="5"/>
     </row>
-    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="6"/>
@@ -21146,7 +21181,7 @@
       <c r="Z698" s="5"/>
       <c r="AA698" s="5"/>
     </row>
-    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="6"/>
@@ -21175,7 +21210,7 @@
       <c r="Z699" s="5"/>
       <c r="AA699" s="5"/>
     </row>
-    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="6"/>
@@ -21204,7 +21239,7 @@
       <c r="Z700" s="5"/>
       <c r="AA700" s="5"/>
     </row>
-    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="6"/>
@@ -21233,7 +21268,7 @@
       <c r="Z701" s="5"/>
       <c r="AA701" s="5"/>
     </row>
-    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="6"/>
@@ -21262,7 +21297,7 @@
       <c r="Z702" s="5"/>
       <c r="AA702" s="5"/>
     </row>
-    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
@@ -21291,7 +21326,7 @@
       <c r="Z703" s="5"/>
       <c r="AA703" s="5"/>
     </row>
-    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="6"/>
@@ -21320,7 +21355,7 @@
       <c r="Z704" s="5"/>
       <c r="AA704" s="5"/>
     </row>
-    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -21349,7 +21384,7 @@
       <c r="Z705" s="5"/>
       <c r="AA705" s="5"/>
     </row>
-    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="6"/>
@@ -21378,7 +21413,7 @@
       <c r="Z706" s="5"/>
       <c r="AA706" s="5"/>
     </row>
-    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="6"/>
@@ -21407,7 +21442,7 @@
       <c r="Z707" s="5"/>
       <c r="AA707" s="5"/>
     </row>
-    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="6"/>
@@ -21436,7 +21471,7 @@
       <c r="Z708" s="5"/>
       <c r="AA708" s="5"/>
     </row>
-    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="6"/>
@@ -21465,7 +21500,7 @@
       <c r="Z709" s="5"/>
       <c r="AA709" s="5"/>
     </row>
-    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="6"/>
@@ -21494,7 +21529,7 @@
       <c r="Z710" s="5"/>
       <c r="AA710" s="5"/>
     </row>
-    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
@@ -21523,7 +21558,7 @@
       <c r="Z711" s="5"/>
       <c r="AA711" s="5"/>
     </row>
-    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="6"/>
@@ -21552,7 +21587,7 @@
       <c r="Z712" s="5"/>
       <c r="AA712" s="5"/>
     </row>
-    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
@@ -21581,7 +21616,7 @@
       <c r="Z713" s="5"/>
       <c r="AA713" s="5"/>
     </row>
-    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="6"/>
@@ -21610,7 +21645,7 @@
       <c r="Z714" s="5"/>
       <c r="AA714" s="5"/>
     </row>
-    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -21639,7 +21674,7 @@
       <c r="Z715" s="5"/>
       <c r="AA715" s="5"/>
     </row>
-    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="6"/>
@@ -21668,7 +21703,7 @@
       <c r="Z716" s="5"/>
       <c r="AA716" s="5"/>
     </row>
-    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="6"/>
@@ -21697,7 +21732,7 @@
       <c r="Z717" s="5"/>
       <c r="AA717" s="5"/>
     </row>
-    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="6"/>
@@ -21726,7 +21761,7 @@
       <c r="Z718" s="5"/>
       <c r="AA718" s="5"/>
     </row>
-    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="6"/>
@@ -21755,7 +21790,7 @@
       <c r="Z719" s="5"/>
       <c r="AA719" s="5"/>
     </row>
-    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
@@ -21784,7 +21819,7 @@
       <c r="Z720" s="5"/>
       <c r="AA720" s="5"/>
     </row>
-    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="6"/>
@@ -21813,7 +21848,7 @@
       <c r="Z721" s="5"/>
       <c r="AA721" s="5"/>
     </row>
-    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="6"/>
@@ -21842,7 +21877,7 @@
       <c r="Z722" s="5"/>
       <c r="AA722" s="5"/>
     </row>
-    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="6"/>
@@ -21871,7 +21906,7 @@
       <c r="Z723" s="5"/>
       <c r="AA723" s="5"/>
     </row>
-    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="6"/>
@@ -21900,7 +21935,7 @@
       <c r="Z724" s="5"/>
       <c r="AA724" s="5"/>
     </row>
-    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -21929,7 +21964,7 @@
       <c r="Z725" s="5"/>
       <c r="AA725" s="5"/>
     </row>
-    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="6"/>
@@ -21958,7 +21993,7 @@
       <c r="Z726" s="5"/>
       <c r="AA726" s="5"/>
     </row>
-    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="6"/>
@@ -21987,7 +22022,7 @@
       <c r="Z727" s="5"/>
       <c r="AA727" s="5"/>
     </row>
-    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="6"/>
@@ -22016,7 +22051,7 @@
       <c r="Z728" s="5"/>
       <c r="AA728" s="5"/>
     </row>
-    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="6"/>
@@ -22045,7 +22080,7 @@
       <c r="Z729" s="5"/>
       <c r="AA729" s="5"/>
     </row>
-    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="6"/>
@@ -22074,7 +22109,7 @@
       <c r="Z730" s="5"/>
       <c r="AA730" s="5"/>
     </row>
-    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="6"/>
@@ -22103,7 +22138,7 @@
       <c r="Z731" s="5"/>
       <c r="AA731" s="5"/>
     </row>
-    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="6"/>
@@ -22132,7 +22167,7 @@
       <c r="Z732" s="5"/>
       <c r="AA732" s="5"/>
     </row>
-    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
@@ -22161,7 +22196,7 @@
       <c r="Z733" s="5"/>
       <c r="AA733" s="5"/>
     </row>
-    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="6"/>
@@ -22190,7 +22225,7 @@
       <c r="Z734" s="5"/>
       <c r="AA734" s="5"/>
     </row>
-    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -22219,7 +22254,7 @@
       <c r="Z735" s="5"/>
       <c r="AA735" s="5"/>
     </row>
-    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6"/>
@@ -22248,7 +22283,7 @@
       <c r="Z736" s="5"/>
       <c r="AA736" s="5"/>
     </row>
-    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="6"/>
@@ -22277,7 +22312,7 @@
       <c r="Z737" s="5"/>
       <c r="AA737" s="5"/>
     </row>
-    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="6"/>
@@ -22306,7 +22341,7 @@
       <c r="Z738" s="5"/>
       <c r="AA738" s="5"/>
     </row>
-    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
@@ -22335,7 +22370,7 @@
       <c r="Z739" s="5"/>
       <c r="AA739" s="5"/>
     </row>
-    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="6"/>
@@ -22364,7 +22399,7 @@
       <c r="Z740" s="5"/>
       <c r="AA740" s="5"/>
     </row>
-    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="6"/>
@@ -22393,7 +22428,7 @@
       <c r="Z741" s="5"/>
       <c r="AA741" s="5"/>
     </row>
-    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="6"/>
@@ -22422,7 +22457,7 @@
       <c r="Z742" s="5"/>
       <c r="AA742" s="5"/>
     </row>
-    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
@@ -22451,7 +22486,7 @@
       <c r="Z743" s="5"/>
       <c r="AA743" s="5"/>
     </row>
-    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
@@ -22480,7 +22515,7 @@
       <c r="Z744" s="5"/>
       <c r="AA744" s="5"/>
     </row>
-    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="6"/>
@@ -22509,7 +22544,7 @@
       <c r="Z745" s="5"/>
       <c r="AA745" s="5"/>
     </row>
-    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="6"/>
@@ -22538,7 +22573,7 @@
       <c r="Z746" s="5"/>
       <c r="AA746" s="5"/>
     </row>
-    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -22567,7 +22602,7 @@
       <c r="Z747" s="5"/>
       <c r="AA747" s="5"/>
     </row>
-    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="6"/>
@@ -22596,7 +22631,7 @@
       <c r="Z748" s="5"/>
       <c r="AA748" s="5"/>
     </row>
-    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
@@ -22625,7 +22660,7 @@
       <c r="Z749" s="5"/>
       <c r="AA749" s="5"/>
     </row>
-    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="6"/>
@@ -22654,7 +22689,7 @@
       <c r="Z750" s="5"/>
       <c r="AA750" s="5"/>
     </row>
-    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="6"/>
@@ -22683,7 +22718,7 @@
       <c r="Z751" s="5"/>
       <c r="AA751" s="5"/>
     </row>
-    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="6"/>
@@ -22712,7 +22747,7 @@
       <c r="Z752" s="5"/>
       <c r="AA752" s="5"/>
     </row>
-    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="6"/>
@@ -22741,7 +22776,7 @@
       <c r="Z753" s="5"/>
       <c r="AA753" s="5"/>
     </row>
-    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="6"/>
@@ -22770,7 +22805,7 @@
       <c r="Z754" s="5"/>
       <c r="AA754" s="5"/>
     </row>
-    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="6"/>
@@ -22799,7 +22834,7 @@
       <c r="Z755" s="5"/>
       <c r="AA755" s="5"/>
     </row>
-    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="6"/>
@@ -22828,7 +22863,7 @@
       <c r="Z756" s="5"/>
       <c r="AA756" s="5"/>
     </row>
-    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="6"/>
@@ -22857,7 +22892,7 @@
       <c r="Z757" s="5"/>
       <c r="AA757" s="5"/>
     </row>
-    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -22886,7 +22921,7 @@
       <c r="Z758" s="5"/>
       <c r="AA758" s="5"/>
     </row>
-    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="6"/>
@@ -22915,7 +22950,7 @@
       <c r="Z759" s="5"/>
       <c r="AA759" s="5"/>
     </row>
-    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="6"/>
@@ -22944,7 +22979,7 @@
       <c r="Z760" s="5"/>
       <c r="AA760" s="5"/>
     </row>
-    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="6"/>
@@ -22973,7 +23008,7 @@
       <c r="Z761" s="5"/>
       <c r="AA761" s="5"/>
     </row>
-    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="6"/>
@@ -23002,7 +23037,7 @@
       <c r="Z762" s="5"/>
       <c r="AA762" s="5"/>
     </row>
-    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="6"/>
@@ -23031,7 +23066,7 @@
       <c r="Z763" s="5"/>
       <c r="AA763" s="5"/>
     </row>
-    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="6"/>
@@ -23060,7 +23095,7 @@
       <c r="Z764" s="5"/>
       <c r="AA764" s="5"/>
     </row>
-    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="6"/>
@@ -23089,7 +23124,7 @@
       <c r="Z765" s="5"/>
       <c r="AA765" s="5"/>
     </row>
-    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="6"/>
@@ -23118,7 +23153,7 @@
       <c r="Z766" s="5"/>
       <c r="AA766" s="5"/>
     </row>
-    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="6"/>
@@ -23147,7 +23182,7 @@
       <c r="Z767" s="5"/>
       <c r="AA767" s="5"/>
     </row>
-    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="6"/>
@@ -23176,7 +23211,7 @@
       <c r="Z768" s="5"/>
       <c r="AA768" s="5"/>
     </row>
-    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
@@ -23205,7 +23240,7 @@
       <c r="Z769" s="5"/>
       <c r="AA769" s="5"/>
     </row>
-    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="6"/>
@@ -23234,7 +23269,7 @@
       <c r="Z770" s="5"/>
       <c r="AA770" s="5"/>
     </row>
-    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="6"/>
@@ -23263,7 +23298,7 @@
       <c r="Z771" s="5"/>
       <c r="AA771" s="5"/>
     </row>
-    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="6"/>
@@ -23292,7 +23327,7 @@
       <c r="Z772" s="5"/>
       <c r="AA772" s="5"/>
     </row>
-    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="6"/>
@@ -23321,7 +23356,7 @@
       <c r="Z773" s="5"/>
       <c r="AA773" s="5"/>
     </row>
-    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="6"/>
@@ -23350,7 +23385,7 @@
       <c r="Z774" s="5"/>
       <c r="AA774" s="5"/>
     </row>
-    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="6"/>
@@ -23379,7 +23414,7 @@
       <c r="Z775" s="5"/>
       <c r="AA775" s="5"/>
     </row>
-    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="6"/>
@@ -23408,7 +23443,7 @@
       <c r="Z776" s="5"/>
       <c r="AA776" s="5"/>
     </row>
-    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="6"/>
@@ -23437,7 +23472,7 @@
       <c r="Z777" s="5"/>
       <c r="AA777" s="5"/>
     </row>
-    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="6"/>
@@ -23466,7 +23501,7 @@
       <c r="Z778" s="5"/>
       <c r="AA778" s="5"/>
     </row>
-    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="6"/>
@@ -23495,7 +23530,7 @@
       <c r="Z779" s="5"/>
       <c r="AA779" s="5"/>
     </row>
-    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
@@ -23524,7 +23559,7 @@
       <c r="Z780" s="5"/>
       <c r="AA780" s="5"/>
     </row>
-    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="6"/>
@@ -23553,7 +23588,7 @@
       <c r="Z781" s="5"/>
       <c r="AA781" s="5"/>
     </row>
-    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="6"/>
@@ -23582,7 +23617,7 @@
       <c r="Z782" s="5"/>
       <c r="AA782" s="5"/>
     </row>
-    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="6"/>
@@ -23611,7 +23646,7 @@
       <c r="Z783" s="5"/>
       <c r="AA783" s="5"/>
     </row>
-    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="6"/>
@@ -23640,7 +23675,7 @@
       <c r="Z784" s="5"/>
       <c r="AA784" s="5"/>
     </row>
-    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="6"/>
@@ -23669,7 +23704,7 @@
       <c r="Z785" s="5"/>
       <c r="AA785" s="5"/>
     </row>
-    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="6"/>
@@ -23698,7 +23733,7 @@
       <c r="Z786" s="5"/>
       <c r="AA786" s="5"/>
     </row>
-    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="6"/>
@@ -23727,7 +23762,7 @@
       <c r="Z787" s="5"/>
       <c r="AA787" s="5"/>
     </row>
-    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="6"/>
@@ -23756,7 +23791,7 @@
       <c r="Z788" s="5"/>
       <c r="AA788" s="5"/>
     </row>
-    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="6"/>
@@ -23785,7 +23820,7 @@
       <c r="Z789" s="5"/>
       <c r="AA789" s="5"/>
     </row>
-    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="6"/>
@@ -23814,7 +23849,7 @@
       <c r="Z790" s="5"/>
       <c r="AA790" s="5"/>
     </row>
-    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -23843,7 +23878,7 @@
       <c r="Z791" s="5"/>
       <c r="AA791" s="5"/>
     </row>
-    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="6"/>
@@ -23872,7 +23907,7 @@
       <c r="Z792" s="5"/>
       <c r="AA792" s="5"/>
     </row>
-    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="6"/>
@@ -23901,7 +23936,7 @@
       <c r="Z793" s="5"/>
       <c r="AA793" s="5"/>
     </row>
-    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="6"/>
@@ -23930,7 +23965,7 @@
       <c r="Z794" s="5"/>
       <c r="AA794" s="5"/>
     </row>
-    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="6"/>
@@ -23959,7 +23994,7 @@
       <c r="Z795" s="5"/>
       <c r="AA795" s="5"/>
     </row>
-    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="6"/>
@@ -23988,7 +24023,7 @@
       <c r="Z796" s="5"/>
       <c r="AA796" s="5"/>
     </row>
-    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="6"/>
@@ -24017,7 +24052,7 @@
       <c r="Z797" s="5"/>
       <c r="AA797" s="5"/>
     </row>
-    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="6"/>
@@ -24046,7 +24081,7 @@
       <c r="Z798" s="5"/>
       <c r="AA798" s="5"/>
     </row>
-    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="6"/>
@@ -24075,7 +24110,7 @@
       <c r="Z799" s="5"/>
       <c r="AA799" s="5"/>
     </row>
-    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="6"/>
@@ -24104,7 +24139,7 @@
       <c r="Z800" s="5"/>
       <c r="AA800" s="5"/>
     </row>
-    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="6"/>
@@ -24133,7 +24168,7 @@
       <c r="Z801" s="5"/>
       <c r="AA801" s="5"/>
     </row>
-    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -24162,7 +24197,7 @@
       <c r="Z802" s="5"/>
       <c r="AA802" s="5"/>
     </row>
-    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="6"/>
@@ -24191,7 +24226,7 @@
       <c r="Z803" s="5"/>
       <c r="AA803" s="5"/>
     </row>
-    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="6"/>
@@ -24220,7 +24255,7 @@
       <c r="Z804" s="5"/>
       <c r="AA804" s="5"/>
     </row>
-    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="6"/>
@@ -24249,7 +24284,7 @@
       <c r="Z805" s="5"/>
       <c r="AA805" s="5"/>
     </row>
-    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="6"/>
@@ -24278,7 +24313,7 @@
       <c r="Z806" s="5"/>
       <c r="AA806" s="5"/>
     </row>
-    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="6"/>
@@ -24307,7 +24342,7 @@
       <c r="Z807" s="5"/>
       <c r="AA807" s="5"/>
     </row>
-    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="6"/>
@@ -24336,7 +24371,7 @@
       <c r="Z808" s="5"/>
       <c r="AA808" s="5"/>
     </row>
-    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="6"/>
@@ -24365,7 +24400,7 @@
       <c r="Z809" s="5"/>
       <c r="AA809" s="5"/>
     </row>
-    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="6"/>
@@ -24394,7 +24429,7 @@
       <c r="Z810" s="5"/>
       <c r="AA810" s="5"/>
     </row>
-    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="6"/>
@@ -24423,7 +24458,7 @@
       <c r="Z811" s="5"/>
       <c r="AA811" s="5"/>
     </row>
-    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="6"/>
@@ -24452,7 +24487,7 @@
       <c r="Z812" s="5"/>
       <c r="AA812" s="5"/>
     </row>
-    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -24481,7 +24516,7 @@
       <c r="Z813" s="5"/>
       <c r="AA813" s="5"/>
     </row>
-    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="6"/>
@@ -24510,7 +24545,7 @@
       <c r="Z814" s="5"/>
       <c r="AA814" s="5"/>
     </row>
-    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="6"/>
@@ -24539,7 +24574,7 @@
       <c r="Z815" s="5"/>
       <c r="AA815" s="5"/>
     </row>
-    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="6"/>
@@ -24568,7 +24603,7 @@
       <c r="Z816" s="5"/>
       <c r="AA816" s="5"/>
     </row>
-    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
@@ -24597,7 +24632,7 @@
       <c r="Z817" s="5"/>
       <c r="AA817" s="5"/>
     </row>
-    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="6"/>
@@ -24626,7 +24661,7 @@
       <c r="Z818" s="5"/>
       <c r="AA818" s="5"/>
     </row>
-    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
@@ -24655,7 +24690,7 @@
       <c r="Z819" s="5"/>
       <c r="AA819" s="5"/>
     </row>
-    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="6"/>
@@ -24684,7 +24719,7 @@
       <c r="Z820" s="5"/>
       <c r="AA820" s="5"/>
     </row>
-    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
@@ -24713,7 +24748,7 @@
       <c r="Z821" s="5"/>
       <c r="AA821" s="5"/>
     </row>
-    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="6"/>
@@ -24742,7 +24777,7 @@
       <c r="Z822" s="5"/>
       <c r="AA822" s="5"/>
     </row>
-    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
@@ -24771,7 +24806,7 @@
       <c r="Z823" s="5"/>
       <c r="AA823" s="5"/>
     </row>
-    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -24800,7 +24835,7 @@
       <c r="Z824" s="5"/>
       <c r="AA824" s="5"/>
     </row>
-    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
@@ -24829,7 +24864,7 @@
       <c r="Z825" s="5"/>
       <c r="AA825" s="5"/>
     </row>
-    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="6"/>
@@ -24858,7 +24893,7 @@
       <c r="Z826" s="5"/>
       <c r="AA826" s="5"/>
     </row>
-    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
@@ -24887,7 +24922,7 @@
       <c r="Z827" s="5"/>
       <c r="AA827" s="5"/>
     </row>
-    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="6"/>
@@ -24916,7 +24951,7 @@
       <c r="Z828" s="5"/>
       <c r="AA828" s="5"/>
     </row>
-    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
@@ -24945,7 +24980,7 @@
       <c r="Z829" s="5"/>
       <c r="AA829" s="5"/>
     </row>
-    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="6"/>
@@ -24974,7 +25009,7 @@
       <c r="Z830" s="5"/>
       <c r="AA830" s="5"/>
     </row>
-    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
@@ -25003,7 +25038,7 @@
       <c r="Z831" s="5"/>
       <c r="AA831" s="5"/>
     </row>
-    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="6"/>
@@ -25032,7 +25067,7 @@
       <c r="Z832" s="5"/>
       <c r="AA832" s="5"/>
     </row>
-    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
@@ -25061,7 +25096,7 @@
       <c r="Z833" s="5"/>
       <c r="AA833" s="5"/>
     </row>
-    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="6"/>
@@ -25090,7 +25125,7 @@
       <c r="Z834" s="5"/>
       <c r="AA834" s="5"/>
     </row>
-    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -25119,7 +25154,7 @@
       <c r="Z835" s="5"/>
       <c r="AA835" s="5"/>
     </row>
-    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="6"/>
@@ -25148,7 +25183,7 @@
       <c r="Z836" s="5"/>
       <c r="AA836" s="5"/>
     </row>
-    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
@@ -25177,7 +25212,7 @@
       <c r="Z837" s="5"/>
       <c r="AA837" s="5"/>
     </row>
-    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="6"/>
@@ -25206,7 +25241,7 @@
       <c r="Z838" s="5"/>
       <c r="AA838" s="5"/>
     </row>
-    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
@@ -25235,7 +25270,7 @@
       <c r="Z839" s="5"/>
       <c r="AA839" s="5"/>
     </row>
-    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="6"/>
@@ -25264,7 +25299,7 @@
       <c r="Z840" s="5"/>
       <c r="AA840" s="5"/>
     </row>
-    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
@@ -25293,7 +25328,7 @@
       <c r="Z841" s="5"/>
       <c r="AA841" s="5"/>
     </row>
-    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
       <c r="C842" s="6"/>
@@ -25322,7 +25357,7 @@
       <c r="Z842" s="5"/>
       <c r="AA842" s="5"/>
     </row>
-    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
@@ -25351,7 +25386,7 @@
       <c r="Z843" s="5"/>
       <c r="AA843" s="5"/>
     </row>
-    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
       <c r="C844" s="6"/>
@@ -25380,7 +25415,7 @@
       <c r="Z844" s="5"/>
       <c r="AA844" s="5"/>
     </row>
-    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
@@ -25409,7 +25444,7 @@
       <c r="Z845" s="5"/>
       <c r="AA845" s="5"/>
     </row>
-    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -25438,7 +25473,7 @@
       <c r="Z846" s="5"/>
       <c r="AA846" s="5"/>
     </row>
-    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
@@ -25467,7 +25502,7 @@
       <c r="Z847" s="5"/>
       <c r="AA847" s="5"/>
     </row>
-    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
       <c r="C848" s="6"/>
@@ -25496,7 +25531,7 @@
       <c r="Z848" s="5"/>
       <c r="AA848" s="5"/>
     </row>
-    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
@@ -25525,7 +25560,7 @@
       <c r="Z849" s="5"/>
       <c r="AA849" s="5"/>
     </row>
-    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
       <c r="C850" s="6"/>
@@ -25554,7 +25589,7 @@
       <c r="Z850" s="5"/>
       <c r="AA850" s="5"/>
     </row>
-    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
@@ -25583,7 +25618,7 @@
       <c r="Z851" s="5"/>
       <c r="AA851" s="5"/>
     </row>
-    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
       <c r="C852" s="6"/>
@@ -25612,7 +25647,7 @@
       <c r="Z852" s="5"/>
       <c r="AA852" s="5"/>
     </row>
-    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
@@ -25641,7 +25676,7 @@
       <c r="Z853" s="5"/>
       <c r="AA853" s="5"/>
     </row>
-    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
       <c r="C854" s="6"/>
@@ -25670,7 +25705,7 @@
       <c r="Z854" s="5"/>
       <c r="AA854" s="5"/>
     </row>
-    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
@@ -25699,7 +25734,7 @@
       <c r="Z855" s="5"/>
       <c r="AA855" s="5"/>
     </row>
-    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
       <c r="C856" s="6"/>
@@ -25728,7 +25763,7 @@
       <c r="Z856" s="5"/>
       <c r="AA856" s="5"/>
     </row>
-    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -25757,7 +25792,7 @@
       <c r="Z857" s="5"/>
       <c r="AA857" s="5"/>
     </row>
-    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
       <c r="C858" s="6"/>
@@ -25786,7 +25821,7 @@
       <c r="Z858" s="5"/>
       <c r="AA858" s="5"/>
     </row>
-    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
@@ -25815,7 +25850,7 @@
       <c r="Z859" s="5"/>
       <c r="AA859" s="5"/>
     </row>
-    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
       <c r="C860" s="6"/>
@@ -25844,7 +25879,7 @@
       <c r="Z860" s="5"/>
       <c r="AA860" s="5"/>
     </row>
-    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
@@ -25873,7 +25908,7 @@
       <c r="Z861" s="5"/>
       <c r="AA861" s="5"/>
     </row>
-    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
       <c r="C862" s="6"/>
@@ -25902,7 +25937,7 @@
       <c r="Z862" s="5"/>
       <c r="AA862" s="5"/>
     </row>
-    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
@@ -25931,7 +25966,7 @@
       <c r="Z863" s="5"/>
       <c r="AA863" s="5"/>
     </row>
-    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
       <c r="C864" s="6"/>
@@ -25960,7 +25995,7 @@
       <c r="Z864" s="5"/>
       <c r="AA864" s="5"/>
     </row>
-    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
@@ -25989,7 +26024,7 @@
       <c r="Z865" s="5"/>
       <c r="AA865" s="5"/>
     </row>
-    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
       <c r="C866" s="6"/>
@@ -26018,7 +26053,7 @@
       <c r="Z866" s="5"/>
       <c r="AA866" s="5"/>
     </row>
-    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
@@ -26047,7 +26082,7 @@
       <c r="Z867" s="5"/>
       <c r="AA867" s="5"/>
     </row>
-    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -26076,7 +26111,7 @@
       <c r="Z868" s="5"/>
       <c r="AA868" s="5"/>
     </row>
-    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
@@ -26105,7 +26140,7 @@
       <c r="Z869" s="5"/>
       <c r="AA869" s="5"/>
     </row>
-    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
       <c r="C870" s="6"/>
@@ -26134,7 +26169,7 @@
       <c r="Z870" s="5"/>
       <c r="AA870" s="5"/>
     </row>
-    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
@@ -26163,7 +26198,7 @@
       <c r="Z871" s="5"/>
       <c r="AA871" s="5"/>
     </row>
-    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
       <c r="C872" s="6"/>
@@ -26192,7 +26227,7 @@
       <c r="Z872" s="5"/>
       <c r="AA872" s="5"/>
     </row>
-    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
@@ -26221,7 +26256,7 @@
       <c r="Z873" s="5"/>
       <c r="AA873" s="5"/>
     </row>
-    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
       <c r="C874" s="6"/>
@@ -26250,7 +26285,7 @@
       <c r="Z874" s="5"/>
       <c r="AA874" s="5"/>
     </row>
-    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
@@ -26279,7 +26314,7 @@
       <c r="Z875" s="5"/>
       <c r="AA875" s="5"/>
     </row>
-    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
       <c r="C876" s="6"/>
@@ -26308,7 +26343,7 @@
       <c r="Z876" s="5"/>
       <c r="AA876" s="5"/>
     </row>
-    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
       <c r="C877" s="6"/>
@@ -26337,7 +26372,7 @@
       <c r="Z877" s="5"/>
       <c r="AA877" s="5"/>
     </row>
-    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
       <c r="C878" s="6"/>
@@ -26366,7 +26401,7 @@
       <c r="Z878" s="5"/>
       <c r="AA878" s="5"/>
     </row>
-    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -26395,7 +26430,7 @@
       <c r="Z879" s="5"/>
       <c r="AA879" s="5"/>
     </row>
-    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
       <c r="C880" s="6"/>
@@ -26424,7 +26459,7 @@
       <c r="Z880" s="5"/>
       <c r="AA880" s="5"/>
     </row>
-    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
@@ -26453,7 +26488,7 @@
       <c r="Z881" s="5"/>
       <c r="AA881" s="5"/>
     </row>
-    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
       <c r="C882" s="6"/>
@@ -26482,7 +26517,7 @@
       <c r="Z882" s="5"/>
       <c r="AA882" s="5"/>
     </row>
-    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
       <c r="C883" s="6"/>
@@ -26511,7 +26546,7 @@
       <c r="Z883" s="5"/>
       <c r="AA883" s="5"/>
     </row>
-    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
       <c r="C884" s="6"/>
@@ -26540,7 +26575,7 @@
       <c r="Z884" s="5"/>
       <c r="AA884" s="5"/>
     </row>
-    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
@@ -26569,7 +26604,7 @@
       <c r="Z885" s="5"/>
       <c r="AA885" s="5"/>
     </row>
-    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
       <c r="C886" s="6"/>
@@ -26598,7 +26633,7 @@
       <c r="Z886" s="5"/>
       <c r="AA886" s="5"/>
     </row>
-    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
       <c r="C887" s="6"/>
@@ -26627,7 +26662,7 @@
       <c r="Z887" s="5"/>
       <c r="AA887" s="5"/>
     </row>
-    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
       <c r="C888" s="6"/>
@@ -26656,7 +26691,7 @@
       <c r="Z888" s="5"/>
       <c r="AA888" s="5"/>
     </row>
-    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
       <c r="C889" s="6"/>
@@ -26685,7 +26720,7 @@
       <c r="Z889" s="5"/>
       <c r="AA889" s="5"/>
     </row>
-    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
@@ -26714,7 +26749,7 @@
       <c r="Z890" s="5"/>
       <c r="AA890" s="5"/>
     </row>
-    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
       <c r="C891" s="6"/>
@@ -26743,7 +26778,7 @@
       <c r="Z891" s="5"/>
       <c r="AA891" s="5"/>
     </row>
-    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
       <c r="C892" s="6"/>
@@ -26772,7 +26807,7 @@
       <c r="Z892" s="5"/>
       <c r="AA892" s="5"/>
     </row>
-    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
       <c r="C893" s="6"/>
@@ -26801,7 +26836,7 @@
       <c r="Z893" s="5"/>
       <c r="AA893" s="5"/>
     </row>
-    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
       <c r="C894" s="6"/>
@@ -26830,7 +26865,7 @@
       <c r="Z894" s="5"/>
       <c r="AA894" s="5"/>
     </row>
-    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
       <c r="C895" s="6"/>
@@ -26859,7 +26894,7 @@
       <c r="Z895" s="5"/>
       <c r="AA895" s="5"/>
     </row>
-    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
       <c r="C896" s="6"/>
@@ -26888,7 +26923,7 @@
       <c r="Z896" s="5"/>
       <c r="AA896" s="5"/>
     </row>
-    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
       <c r="C897" s="6"/>
@@ -26917,7 +26952,7 @@
       <c r="Z897" s="5"/>
       <c r="AA897" s="5"/>
     </row>
-    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
       <c r="C898" s="6"/>
@@ -26946,7 +26981,7 @@
       <c r="Z898" s="5"/>
       <c r="AA898" s="5"/>
     </row>
-    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
       <c r="C899" s="6"/>
@@ -26975,7 +27010,7 @@
       <c r="Z899" s="5"/>
       <c r="AA899" s="5"/>
     </row>
-    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
       <c r="C900" s="6"/>
@@ -27004,7 +27039,7 @@
       <c r="Z900" s="5"/>
       <c r="AA900" s="5"/>
     </row>
-    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
@@ -27033,7 +27068,7 @@
       <c r="Z901" s="5"/>
       <c r="AA901" s="5"/>
     </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
       <c r="C902" s="6"/>
@@ -27062,7 +27097,7 @@
       <c r="Z902" s="5"/>
       <c r="AA902" s="5"/>
     </row>
-    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
       <c r="C903" s="6"/>
@@ -27091,7 +27126,7 @@
       <c r="Z903" s="5"/>
       <c r="AA903" s="5"/>
     </row>
-    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
       <c r="C904" s="6"/>
@@ -27120,7 +27155,7 @@
       <c r="Z904" s="5"/>
       <c r="AA904" s="5"/>
     </row>
-    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
       <c r="C905" s="6"/>
@@ -27149,7 +27184,7 @@
       <c r="Z905" s="5"/>
       <c r="AA905" s="5"/>
     </row>
-    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
       <c r="C906" s="6"/>
@@ -27178,7 +27213,7 @@
       <c r="Z906" s="5"/>
       <c r="AA906" s="5"/>
     </row>
-    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
       <c r="C907" s="6"/>
@@ -27207,7 +27242,7 @@
       <c r="Z907" s="5"/>
       <c r="AA907" s="5"/>
     </row>
-    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
       <c r="C908" s="6"/>
@@ -27236,7 +27271,7 @@
       <c r="Z908" s="5"/>
       <c r="AA908" s="5"/>
     </row>
-    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
       <c r="C909" s="6"/>
@@ -27265,7 +27300,7 @@
       <c r="Z909" s="5"/>
       <c r="AA909" s="5"/>
     </row>
-    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
       <c r="C910" s="6"/>
@@ -27294,7 +27329,7 @@
       <c r="Z910" s="5"/>
       <c r="AA910" s="5"/>
     </row>
-    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
       <c r="C911" s="6"/>
@@ -27323,7 +27358,7 @@
       <c r="Z911" s="5"/>
       <c r="AA911" s="5"/>
     </row>
-    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
@@ -27352,7 +27387,7 @@
       <c r="Z912" s="5"/>
       <c r="AA912" s="5"/>
     </row>
-    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
       <c r="C913" s="6"/>
@@ -27381,7 +27416,7 @@
       <c r="Z913" s="5"/>
       <c r="AA913" s="5"/>
     </row>
-    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
       <c r="C914" s="6"/>
@@ -27410,7 +27445,7 @@
       <c r="Z914" s="5"/>
       <c r="AA914" s="5"/>
     </row>
-    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
       <c r="C915" s="6"/>
@@ -27439,7 +27474,7 @@
       <c r="Z915" s="5"/>
       <c r="AA915" s="5"/>
     </row>
-    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
       <c r="C916" s="6"/>
@@ -27468,7 +27503,7 @@
       <c r="Z916" s="5"/>
       <c r="AA916" s="5"/>
     </row>
-    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
       <c r="C917" s="6"/>
@@ -27497,7 +27532,7 @@
       <c r="Z917" s="5"/>
       <c r="AA917" s="5"/>
     </row>
-    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
       <c r="C918" s="6"/>
@@ -27526,7 +27561,7 @@
       <c r="Z918" s="5"/>
       <c r="AA918" s="5"/>
     </row>
-    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
       <c r="C919" s="6"/>
@@ -27555,7 +27590,7 @@
       <c r="Z919" s="5"/>
       <c r="AA919" s="5"/>
     </row>
-    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
       <c r="C920" s="6"/>
@@ -27584,7 +27619,7 @@
       <c r="Z920" s="5"/>
       <c r="AA920" s="5"/>
     </row>
-    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
       <c r="C921" s="6"/>
@@ -27613,7 +27648,7 @@
       <c r="Z921" s="5"/>
       <c r="AA921" s="5"/>
     </row>
-    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
       <c r="C922" s="6"/>
@@ -27642,7 +27677,7 @@
       <c r="Z922" s="5"/>
       <c r="AA922" s="5"/>
     </row>
-    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
       <c r="C923" s="6"/>
@@ -27671,7 +27706,7 @@
       <c r="Z923" s="5"/>
       <c r="AA923" s="5"/>
     </row>
-    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
@@ -27700,7 +27735,7 @@
       <c r="Z924" s="5"/>
       <c r="AA924" s="5"/>
     </row>
-    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
       <c r="C925" s="6"/>
@@ -27729,7 +27764,7 @@
       <c r="Z925" s="5"/>
       <c r="AA925" s="5"/>
     </row>
-    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
       <c r="C926" s="6"/>
@@ -27758,7 +27793,7 @@
       <c r="Z926" s="5"/>
       <c r="AA926" s="5"/>
     </row>
-    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
       <c r="C927" s="6"/>
@@ -27787,7 +27822,7 @@
       <c r="Z927" s="5"/>
       <c r="AA927" s="5"/>
     </row>
-    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
       <c r="C928" s="6"/>
@@ -27816,7 +27851,7 @@
       <c r="Z928" s="5"/>
       <c r="AA928" s="5"/>
     </row>
-    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
       <c r="C929" s="6"/>
@@ -27845,7 +27880,7 @@
       <c r="Z929" s="5"/>
       <c r="AA929" s="5"/>
     </row>
-    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
       <c r="C930" s="6"/>
@@ -27874,7 +27909,7 @@
       <c r="Z930" s="5"/>
       <c r="AA930" s="5"/>
     </row>
-    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
       <c r="C931" s="6"/>
@@ -27903,7 +27938,7 @@
       <c r="Z931" s="5"/>
       <c r="AA931" s="5"/>
     </row>
-    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
       <c r="C932" s="6"/>
@@ -27932,7 +27967,7 @@
       <c r="Z932" s="5"/>
       <c r="AA932" s="5"/>
     </row>
-    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
       <c r="C933" s="6"/>
@@ -27961,7 +27996,7 @@
       <c r="Z933" s="5"/>
       <c r="AA933" s="5"/>
     </row>
-    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
       <c r="C934" s="6"/>
@@ -27990,7 +28025,7 @@
       <c r="Z934" s="5"/>
       <c r="AA934" s="5"/>
     </row>
-    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
@@ -28019,7 +28054,7 @@
       <c r="Z935" s="5"/>
       <c r="AA935" s="5"/>
     </row>
-    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
       <c r="C936" s="6"/>
@@ -28048,7 +28083,7 @@
       <c r="Z936" s="5"/>
       <c r="AA936" s="5"/>
     </row>
-    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
       <c r="C937" s="6"/>
@@ -28077,7 +28112,7 @@
       <c r="Z937" s="5"/>
       <c r="AA937" s="5"/>
     </row>
-    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
       <c r="C938" s="6"/>
@@ -28106,7 +28141,7 @@
       <c r="Z938" s="5"/>
       <c r="AA938" s="5"/>
     </row>
-    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
       <c r="C939" s="6"/>
@@ -28135,7 +28170,7 @@
       <c r="Z939" s="5"/>
       <c r="AA939" s="5"/>
     </row>
-    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
       <c r="C940" s="6"/>
@@ -28164,7 +28199,7 @@
       <c r="Z940" s="5"/>
       <c r="AA940" s="5"/>
     </row>
-    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
       <c r="C941" s="6"/>
@@ -28193,7 +28228,7 @@
       <c r="Z941" s="5"/>
       <c r="AA941" s="5"/>
     </row>
-    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
       <c r="C942" s="6"/>
@@ -28222,7 +28257,7 @@
       <c r="Z942" s="5"/>
       <c r="AA942" s="5"/>
     </row>
-    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
       <c r="C943" s="6"/>
@@ -28251,7 +28286,7 @@
       <c r="Z943" s="5"/>
       <c r="AA943" s="5"/>
     </row>
-    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
       <c r="C944" s="6"/>
@@ -28280,7 +28315,7 @@
       <c r="Z944" s="5"/>
       <c r="AA944" s="5"/>
     </row>
-    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
       <c r="C945" s="6"/>
@@ -28309,7 +28344,7 @@
       <c r="Z945" s="5"/>
       <c r="AA945" s="5"/>
     </row>
-    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
@@ -28338,7 +28373,7 @@
       <c r="Z946" s="5"/>
       <c r="AA946" s="5"/>
     </row>
-    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
       <c r="C947" s="6"/>
@@ -28367,7 +28402,7 @@
       <c r="Z947" s="5"/>
       <c r="AA947" s="5"/>
     </row>
-    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
       <c r="C948" s="6"/>
@@ -28396,7 +28431,7 @@
       <c r="Z948" s="5"/>
       <c r="AA948" s="5"/>
     </row>
-    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
       <c r="C949" s="6"/>
@@ -28425,58 +28460,6 @@
       <c r="Z949" s="5"/>
       <c r="AA949" s="5"/>
     </row>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
